--- a/Support/Sunac2019/LocalMode/门窗算量表格.xlsx
+++ b/Support/Sunac2019/LocalMode/门窗算量表格.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\0Doc\各模块\门窗\0深化顾问及算量\图源\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC5F9D1-D124-40BF-B2D4-B24EDA7F755D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
@@ -37,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1013,7 +1007,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -2139,31 +2133,128 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2179,6 +2270,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2220,19 +2317,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2259,16 +2353,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2277,156 +2407,20 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 11" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 12" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 2_成本" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 4 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 4 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 4 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规_参考工程量清单" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 11" xfId="6"/>
+    <cellStyle name="常规 12" xfId="2"/>
+    <cellStyle name="常规 2_成本" xfId="8"/>
+    <cellStyle name="常规 4 2 3" xfId="5"/>
+    <cellStyle name="常规 4 2 4" xfId="4"/>
+    <cellStyle name="常规 4 4" xfId="3"/>
+    <cellStyle name="常规_参考工程量清单" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2461,7 +2455,7 @@
         <xdr:cNvPr id="2" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056E7DFC-97A2-4F8C-B5B3-937E2AEB8354}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{056E7DFC-97A2-4F8C-B5B3-937E2AEB8354}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2529,7 @@
         <xdr:cNvPr id="3" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD545937-26AF-44F5-8C43-9CDB08B04B54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD545937-26AF-44F5-8C43-9CDB08B04B54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2603,7 @@
         <xdr:cNvPr id="4" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BF13FE-3748-49F2-B74A-1D0F72FD2BDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9BF13FE-3748-49F2-B74A-1D0F72FD2BDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2677,7 @@
         <xdr:cNvPr id="5" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761D93EA-30AB-48DC-A7BA-66B681F68C45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{761D93EA-30AB-48DC-A7BA-66B681F68C45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2751,7 @@
         <xdr:cNvPr id="6" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC01A1B9-18EE-4FA0-B56D-01C1EE688332}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC01A1B9-18EE-4FA0-B56D-01C1EE688332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2825,7 @@
         <xdr:cNvPr id="7" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A6AC8B-97B2-46CD-BE94-8046272215B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58A6AC8B-97B2-46CD-BE94-8046272215B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2900,7 +2894,7 @@
         <xdr:cNvPr id="8" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB00F07-9E1B-46F0-8BFF-C19A9DD07AB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CB00F07-9E1B-46F0-8BFF-C19A9DD07AB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2909,7 +2903,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2969,7 +2963,7 @@
         <xdr:cNvPr id="9" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0C04BA-8B46-42D8-9ED7-4DF306E9D54A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F0C04BA-8B46-42D8-9ED7-4DF306E9D54A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +2972,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3038,7 +3032,7 @@
         <xdr:cNvPr id="10" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6808311-41A6-43CB-BB6E-C2FE97B663C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6808311-41A6-43CB-BB6E-C2FE97B663C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3047,7 +3041,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3107,7 +3101,7 @@
         <xdr:cNvPr id="11" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA2051D-5461-4773-8950-0F0B4AAFE044}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEA2051D-5461-4773-8950-0F0B4AAFE044}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3116,7 +3110,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3176,7 +3170,7 @@
         <xdr:cNvPr id="12" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1A0A58-131C-44C8-A326-C946A0627F22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB1A0A58-131C-44C8-A326-C946A0627F22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3185,7 +3179,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3245,7 +3239,7 @@
         <xdr:cNvPr id="13" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFE2D51-D747-4AAB-88BF-AE934141D045}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFFE2D51-D747-4AAB-88BF-AE934141D045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3254,7 +3248,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3314,7 +3308,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D19AB3-E4EB-4213-9C92-BB021D5F5F03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9D19AB3-E4EB-4213-9C92-BB021D5F5F03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,7 +3317,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3383,7 +3377,7 @@
         <xdr:cNvPr id="15" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39256756-6960-4E6C-8AAC-18DFAB8B67A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39256756-6960-4E6C-8AAC-18DFAB8B67A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3386,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3452,7 +3446,7 @@
         <xdr:cNvPr id="16" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F5BDCA-8E73-41F8-B754-B7E5F5044A0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80F5BDCA-8E73-41F8-B754-B7E5F5044A0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3461,7 +3455,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3521,7 +3515,7 @@
         <xdr:cNvPr id="17" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E191A14B-CBB7-4FAC-85D6-BDD8B7F16ABE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E191A14B-CBB7-4FAC-85D6-BDD8B7F16ABE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3530,7 +3524,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3590,7 +3584,7 @@
         <xdr:cNvPr id="18" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575DC458-C05A-4512-9A50-FDC25B47AE2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{575DC458-C05A-4512-9A50-FDC25B47AE2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,7 +3593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3659,7 +3653,7 @@
         <xdr:cNvPr id="19" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B64ECB-6C38-4306-B420-D0F6CFED533F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9B64ECB-6C38-4306-B420-D0F6CFED533F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3668,7 +3662,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3728,7 +3722,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71BE643-4AC7-48AB-95F2-FCD0E7575E30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A71BE643-4AC7-48AB-95F2-FCD0E7575E30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3737,7 +3731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3797,7 +3791,7 @@
         <xdr:cNvPr id="21" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855D2040-4B93-4E04-A85C-E8FF44B82264}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{855D2040-4B93-4E04-A85C-E8FF44B82264}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,7 +3800,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3866,7 +3860,7 @@
         <xdr:cNvPr id="22" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B35528-501C-4087-B60F-C4F4F231C11C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3B35528-501C-4087-B60F-C4F4F231C11C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3875,7 +3869,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3935,7 +3929,7 @@
         <xdr:cNvPr id="23" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7BB651-822B-48C4-8DC6-E1179C8053FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B7BB651-822B-48C4-8DC6-E1179C8053FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3944,7 +3938,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4004,7 +3998,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7101563A-0B63-4C7A-A901-FE12B33B3C78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7101563A-0B63-4C7A-A901-FE12B33B3C78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4013,7 +4007,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4073,7 +4067,7 @@
         <xdr:cNvPr id="25" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE61DFA6-5608-4727-8AFC-166F134E8846}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE61DFA6-5608-4727-8AFC-166F134E8846}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4082,7 +4076,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4142,7 +4136,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C34900-73D0-4C93-BE33-C7B592551D00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4C34900-73D0-4C93-BE33-C7B592551D00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4151,7 +4145,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4211,7 +4205,7 @@
         <xdr:cNvPr id="27" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99978E34-E19D-4B82-8BC3-C6561DF85A41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99978E34-E19D-4B82-8BC3-C6561DF85A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4220,7 +4214,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4280,7 +4274,7 @@
         <xdr:cNvPr id="28" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C3B80C-FD7E-41C2-8741-B01CB9AA0E92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07C3B80C-FD7E-41C2-8741-B01CB9AA0E92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4289,7 +4283,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4349,7 +4343,7 @@
         <xdr:cNvPr id="29" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501554D4-DADC-406A-8B8E-822AF96391EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{501554D4-DADC-406A-8B8E-822AF96391EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4358,7 +4352,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4418,7 +4412,7 @@
         <xdr:cNvPr id="30" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E74EF0B-F9BF-42C8-9D88-498F4339C4DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E74EF0B-F9BF-42C8-9D88-498F4339C4DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4427,7 +4421,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4487,7 +4481,7 @@
         <xdr:cNvPr id="31" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496B920C-59E8-4050-AB99-6EAE080030C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{496B920C-59E8-4050-AB99-6EAE080030C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4496,7 +4490,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4556,7 +4550,7 @@
         <xdr:cNvPr id="32" name="图片 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB9E06D-539F-4A1D-8C7D-278A47A860A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DB9E06D-539F-4A1D-8C7D-278A47A860A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4565,7 +4559,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4625,7 +4619,7 @@
         <xdr:cNvPr id="33" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F68237-A6FF-4C08-9610-34B67C477BC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2F68237-A6FF-4C08-9610-34B67C477BC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4634,7 +4628,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4694,7 +4688,7 @@
         <xdr:cNvPr id="34" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156F006F-B9B9-4500-A55C-CB0933C92F3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{156F006F-B9B9-4500-A55C-CB0933C92F3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4703,7 +4697,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4763,7 +4757,7 @@
         <xdr:cNvPr id="35" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A5E84B-3C3B-4857-A07D-E7E5FFFDF1AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4A5E84B-3C3B-4857-A07D-E7E5FFFDF1AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4772,7 +4766,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4832,7 +4826,7 @@
         <xdr:cNvPr id="36" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3928AC-C880-4C34-A150-7BD49B2467B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA3928AC-C880-4C34-A150-7BD49B2467B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4841,7 +4835,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4901,7 +4895,7 @@
         <xdr:cNvPr id="37" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E020AA60-9C40-440A-A630-D639CB5EEF35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E020AA60-9C40-440A-A630-D639CB5EEF35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4910,7 +4904,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4970,7 +4964,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEBAC48-0CF0-40FA-B5AE-4B2292EEED22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DEBAC48-0CF0-40FA-B5AE-4B2292EEED22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4979,7 +4973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5039,7 +5033,7 @@
         <xdr:cNvPr id="39" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFA4090-41B0-40E5-9C76-0F5DB9A5CD54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EFA4090-41B0-40E5-9C76-0F5DB9A5CD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5048,7 +5042,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5108,7 +5102,7 @@
         <xdr:cNvPr id="40" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35992E37-FF99-4275-9EDE-1560B7131904}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35992E37-FF99-4275-9EDE-1560B7131904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5117,7 +5111,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5177,7 +5171,7 @@
         <xdr:cNvPr id="41" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362DAA56-7CC3-4AE3-A19C-9FA188771081}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{362DAA56-7CC3-4AE3-A19C-9FA188771081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5186,7 +5180,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5246,7 +5240,7 @@
         <xdr:cNvPr id="42" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BE53FF-7A17-4ECF-A484-54B6166EC80C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2BE53FF-7A17-4ECF-A484-54B6166EC80C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5255,7 +5249,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5315,7 +5309,7 @@
         <xdr:cNvPr id="43" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BBB3E9-D4FF-41B8-8F42-ACD76A4C96FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48BBB3E9-D4FF-41B8-8F42-ACD76A4C96FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5324,7 +5318,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5384,7 +5378,7 @@
         <xdr:cNvPr id="44" name="图片 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1395F89D-7F82-45DB-A952-E3C2B40DE020}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1395F89D-7F82-45DB-A952-E3C2B40DE020}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5393,7 +5387,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5453,7 +5447,7 @@
         <xdr:cNvPr id="45" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E13BAD1-97BA-4D1C-BD7C-EF25538C57EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E13BAD1-97BA-4D1C-BD7C-EF25538C57EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5462,7 +5456,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5522,7 +5516,7 @@
         <xdr:cNvPr id="46" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA94FD7-59CB-4D5B-8BA9-D128009181F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FA94FD7-59CB-4D5B-8BA9-D128009181F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5531,7 +5525,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5591,7 +5585,7 @@
         <xdr:cNvPr id="47" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798DD307-BE34-4642-BCFC-970C6ADBED38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{798DD307-BE34-4642-BCFC-970C6ADBED38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5600,7 +5594,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5660,7 +5654,7 @@
         <xdr:cNvPr id="48" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66497E25-71E7-4565-978E-A46CDD901248}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66497E25-71E7-4565-978E-A46CDD901248}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5669,7 +5663,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5729,7 +5723,7 @@
         <xdr:cNvPr id="49" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C91032B-70F4-44CA-B3E1-0CBB714420F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C91032B-70F4-44CA-B3E1-0CBB714420F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5738,7 +5732,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5798,7 +5792,7 @@
         <xdr:cNvPr id="50" name="图片 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD3C97C-C63E-429F-8B65-E1CDB475E881}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CD3C97C-C63E-429F-8B65-E1CDB475E881}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5807,7 +5801,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5867,7 +5861,7 @@
         <xdr:cNvPr id="51" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286E29B1-E328-48C8-AB02-B6267E92EA94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{286E29B1-E328-48C8-AB02-B6267E92EA94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5876,7 +5870,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5936,7 +5930,7 @@
         <xdr:cNvPr id="52" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B38B4F8-63D1-4C89-9615-D8D2B7DE09D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B38B4F8-63D1-4C89-9615-D8D2B7DE09D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5945,7 +5939,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6005,7 +5999,7 @@
         <xdr:cNvPr id="53" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22313ED8-50C2-4DED-AE65-74ABCCEC29DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22313ED8-50C2-4DED-AE65-74ABCCEC29DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6014,7 +6008,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6074,7 +6068,7 @@
         <xdr:cNvPr id="54" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EFBC15-F540-43D2-A941-C53A87F927DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7EFBC15-F540-43D2-A941-C53A87F927DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6083,7 +6077,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6143,7 +6137,7 @@
         <xdr:cNvPr id="55" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2FCAA4-A1B8-4973-8BDC-11A174017F54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E2FCAA4-A1B8-4973-8BDC-11A174017F54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6152,7 +6146,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6212,7 +6206,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8674E2-2C70-425F-8A0C-3F91138C2FA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A8674E2-2C70-425F-8A0C-3F91138C2FA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6221,7 +6215,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6281,7 +6275,7 @@
         <xdr:cNvPr id="57" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8435591D-2160-4874-9E53-73A616EDF887}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8435591D-2160-4874-9E53-73A616EDF887}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6290,7 +6284,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6350,7 +6344,7 @@
         <xdr:cNvPr id="58" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5CBBB4-E4A6-4293-A274-E01FB0A9D47E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C5CBBB4-E4A6-4293-A274-E01FB0A9D47E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6359,7 +6353,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6419,7 +6413,7 @@
         <xdr:cNvPr id="59" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D2A69F-0D21-4E9A-86D8-98BEE1EDD269}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44D2A69F-0D21-4E9A-86D8-98BEE1EDD269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6428,7 +6422,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6488,7 +6482,7 @@
         <xdr:cNvPr id="60" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAC6AF2-2379-4640-BEF8-9E9C8DB25EDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BAC6AF2-2379-4640-BEF8-9E9C8DB25EDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6497,7 +6491,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6557,7 +6551,7 @@
         <xdr:cNvPr id="61" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1344DBA-C1C2-4FB6-91AF-8F68BEAE9702}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1344DBA-C1C2-4FB6-91AF-8F68BEAE9702}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6566,7 +6560,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6626,7 +6620,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88F561C-EDF9-4B16-A9EB-EEFE0E7D93E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F88F561C-EDF9-4B16-A9EB-EEFE0E7D93E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6635,7 +6629,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6695,7 +6689,7 @@
         <xdr:cNvPr id="63" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08D3B99-FAD7-442B-B31F-4AC5856BF07A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B08D3B99-FAD7-442B-B31F-4AC5856BF07A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6704,7 +6698,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6764,7 +6758,7 @@
         <xdr:cNvPr id="64" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B637411-37B1-450C-9E91-4FE42205B744}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B637411-37B1-450C-9E91-4FE42205B744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6773,7 +6767,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6833,7 +6827,7 @@
         <xdr:cNvPr id="65" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFED5A5C-CF94-481E-BDCE-27327C408EE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFED5A5C-CF94-481E-BDCE-27327C408EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6842,7 +6836,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6902,7 +6896,7 @@
         <xdr:cNvPr id="66" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE5D975-1ECF-4429-AC68-B325B6ADE30C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AE5D975-1ECF-4429-AC68-B325B6ADE30C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6911,7 +6905,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6971,7 +6965,7 @@
         <xdr:cNvPr id="67" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D2BDD1-F169-4C22-A5DF-3364B979ED73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8D2BDD1-F169-4C22-A5DF-3364B979ED73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6980,7 +6974,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7040,7 +7034,7 @@
         <xdr:cNvPr id="68" name="图片 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5998AC-CBBC-49C7-8A28-84FE39E0D327}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E5998AC-CBBC-49C7-8A28-84FE39E0D327}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7049,7 +7043,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7109,7 +7103,7 @@
         <xdr:cNvPr id="69" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4DAE98-1CBC-4C56-B481-66B079B69362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC4DAE98-1CBC-4C56-B481-66B079B69362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7118,7 +7112,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7178,7 +7172,7 @@
         <xdr:cNvPr id="70" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FFC546-5E5E-4EF6-8D42-AC7474EDF58B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87FFC546-5E5E-4EF6-8D42-AC7474EDF58B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7187,7 +7181,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7247,7 +7241,7 @@
         <xdr:cNvPr id="71" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92BDCA8-9144-4DB0-A3F1-59987CB75093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C92BDCA8-9144-4DB0-A3F1-59987CB75093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7256,7 +7250,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7316,7 +7310,7 @@
         <xdr:cNvPr id="72" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6727BCE5-3B6B-49E4-A927-CE87E1D36EE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6727BCE5-3B6B-49E4-A927-CE87E1D36EE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7325,7 +7319,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7385,7 +7379,7 @@
         <xdr:cNvPr id="73" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC49CD1-0E49-45FD-A1DE-E574DAB6AA5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FC49CD1-0E49-45FD-A1DE-E574DAB6AA5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7394,7 +7388,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7454,7 +7448,7 @@
         <xdr:cNvPr id="74" name="图片 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C1545B-FE0E-49BC-BA71-F76AE8B3F8CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87C1545B-FE0E-49BC-BA71-F76AE8B3F8CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7463,7 +7457,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7523,7 +7517,7 @@
         <xdr:cNvPr id="75" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAC15CC-06A9-4964-B902-69C002C7E20A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECAC15CC-06A9-4964-B902-69C002C7E20A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7532,7 +7526,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7592,7 +7586,7 @@
         <xdr:cNvPr id="76" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6FA464-5AA9-4114-A0B6-227F5E9DDFDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD6FA464-5AA9-4114-A0B6-227F5E9DDFDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7601,7 +7595,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7661,7 +7655,7 @@
         <xdr:cNvPr id="77" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702B3F40-26EB-478C-A055-0409AA0965C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{702B3F40-26EB-478C-A055-0409AA0965C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7670,7 +7664,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7730,7 +7724,7 @@
         <xdr:cNvPr id="78" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE6FE69-B4F0-44FF-A3E9-7C2EE3319EE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAE6FE69-B4F0-44FF-A3E9-7C2EE3319EE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7739,7 +7733,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7799,7 +7793,7 @@
         <xdr:cNvPr id="79" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAADDCC6-904D-4D59-84DB-D6123C5D2143}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAADDCC6-904D-4D59-84DB-D6123C5D2143}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7808,7 +7802,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7868,7 +7862,7 @@
         <xdr:cNvPr id="80" name="图片 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6697E746-AB38-4AE1-8DCD-9A60FBF1BAEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6697E746-AB38-4AE1-8DCD-9A60FBF1BAEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7877,7 +7871,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7937,7 +7931,7 @@
         <xdr:cNvPr id="81" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348A448D-272E-4526-9D94-7C206E2684C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{348A448D-272E-4526-9D94-7C206E2684C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7946,7 +7940,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8006,7 +8000,7 @@
         <xdr:cNvPr id="82" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930C7549-3AE1-4BE2-9B9E-1EB9B43176DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{930C7549-3AE1-4BE2-9B9E-1EB9B43176DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8015,7 +8009,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8075,7 +8069,7 @@
         <xdr:cNvPr id="83" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E40663-1315-4E93-833C-1A1A0B976B8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7E40663-1315-4E93-833C-1A1A0B976B8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8084,7 +8078,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8144,7 +8138,7 @@
         <xdr:cNvPr id="84" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D79306F-68E0-4268-A66E-202D216F1941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D79306F-68E0-4268-A66E-202D216F1941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8153,7 +8147,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8213,7 +8207,7 @@
         <xdr:cNvPr id="85" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E671AF4-F393-45CB-BCFB-53D775460EBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E671AF4-F393-45CB-BCFB-53D775460EBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8222,7 +8216,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8269,50 +8263,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>760830</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="图片 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F19958-7ACE-4C36-8400-B6981150138D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="42334" y="668021"/>
-          <a:ext cx="2943536" cy="2191173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8336,7 +8286,7 @@
         <xdr:cNvPr id="2" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1658372E-9272-4D09-A871-DA74DE705839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1658372E-9272-4D09-A871-DA74DE705839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8410,7 +8360,7 @@
         <xdr:cNvPr id="3" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38A9C0C-3C4B-4EE5-A432-8C49745F0917}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B38A9C0C-3C4B-4EE5-A432-8C49745F0917}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8484,7 +8434,7 @@
         <xdr:cNvPr id="4" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED49441-0161-48F8-8516-94F3C3C2E3F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ED49441-0161-48F8-8516-94F3C3C2E3F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8558,7 +8508,7 @@
         <xdr:cNvPr id="5" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FAD0D4A-B23C-4D21-8FB3-BDCA13A46BB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FAD0D4A-B23C-4D21-8FB3-BDCA13A46BB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8632,7 +8582,7 @@
         <xdr:cNvPr id="6" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B78BE38-A4B3-4E3F-8263-86D5665B815C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B78BE38-A4B3-4E3F-8263-86D5665B815C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8706,7 +8656,7 @@
         <xdr:cNvPr id="7" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E800AF1-C829-4BE4-BF2C-8EFF39115BD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E800AF1-C829-4BE4-BF2C-8EFF39115BD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8775,7 +8725,7 @@
         <xdr:cNvPr id="8" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92256848-26E4-4FDF-A95F-AE8A9A1997D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92256848-26E4-4FDF-A95F-AE8A9A1997D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8784,7 +8734,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8844,7 +8794,7 @@
         <xdr:cNvPr id="9" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF21AB6D-032D-49EE-BC6C-A9601C225142}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF21AB6D-032D-49EE-BC6C-A9601C225142}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8853,7 +8803,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8913,7 +8863,7 @@
         <xdr:cNvPr id="10" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1018D757-ECC0-4162-A560-2138D04CA300}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1018D757-ECC0-4162-A560-2138D04CA300}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8922,7 +8872,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8982,7 +8932,7 @@
         <xdr:cNvPr id="11" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620315E6-DDDF-432B-A8C1-2422C6A88CAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{620315E6-DDDF-432B-A8C1-2422C6A88CAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8991,7 +8941,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9051,7 +9001,7 @@
         <xdr:cNvPr id="12" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5F6E80-5EB4-462B-9CFA-CB3B7285466D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB5F6E80-5EB4-462B-9CFA-CB3B7285466D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9060,7 +9010,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9120,7 +9070,7 @@
         <xdr:cNvPr id="13" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103A98A8-27EB-4B08-A052-937F8BEB936E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{103A98A8-27EB-4B08-A052-937F8BEB936E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9129,7 +9079,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9189,7 +9139,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74632D67-FA00-495A-BF5C-884EB16BC291}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74632D67-FA00-495A-BF5C-884EB16BC291}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9198,7 +9148,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9258,7 +9208,7 @@
         <xdr:cNvPr id="15" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A717D2-CB89-48B4-AA90-950400B9E67A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13A717D2-CB89-48B4-AA90-950400B9E67A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9267,7 +9217,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9327,7 +9277,7 @@
         <xdr:cNvPr id="16" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2B7925-D526-43CB-838D-0A9A8B4D9C92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D2B7925-D526-43CB-838D-0A9A8B4D9C92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9336,7 +9286,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9396,7 +9346,7 @@
         <xdr:cNvPr id="17" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC44C78E-AA07-4D54-897A-0FA403EBEBB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC44C78E-AA07-4D54-897A-0FA403EBEBB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9405,7 +9355,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9465,7 +9415,7 @@
         <xdr:cNvPr id="18" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468016A3-9015-4C1D-9DF6-650C6E531D54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{468016A3-9015-4C1D-9DF6-650C6E531D54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9474,7 +9424,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9534,7 +9484,7 @@
         <xdr:cNvPr id="19" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061483E1-16BC-4749-8C39-39CB2F8CF916}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{061483E1-16BC-4749-8C39-39CB2F8CF916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9543,7 +9493,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9603,7 +9553,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E266C095-DFB4-4FD4-A78B-B49E3113B4ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E266C095-DFB4-4FD4-A78B-B49E3113B4ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9612,7 +9562,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9672,7 +9622,7 @@
         <xdr:cNvPr id="21" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE278A7B-0230-41F2-837E-11346AC42141}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE278A7B-0230-41F2-837E-11346AC42141}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9681,7 +9631,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9741,7 +9691,7 @@
         <xdr:cNvPr id="22" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C8CF6D-5B69-4F52-9200-F1731E2B4CA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80C8CF6D-5B69-4F52-9200-F1731E2B4CA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9750,7 +9700,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9810,7 +9760,7 @@
         <xdr:cNvPr id="23" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4991760-56BD-4605-95E2-6CE7C0B07E84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4991760-56BD-4605-95E2-6CE7C0B07E84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9819,7 +9769,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9879,7 +9829,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5F5783-F590-449B-885C-85AC5440FD4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D5F5783-F590-449B-885C-85AC5440FD4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9888,7 +9838,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9948,7 +9898,7 @@
         <xdr:cNvPr id="25" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02FA9E3-21C8-481D-A1D1-5621F4788E56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F02FA9E3-21C8-481D-A1D1-5621F4788E56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9957,7 +9907,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10017,7 +9967,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD778ABB-02A6-4787-BB44-190D954CD96F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD778ABB-02A6-4787-BB44-190D954CD96F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10026,7 +9976,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10086,7 +10036,7 @@
         <xdr:cNvPr id="27" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DFAF32-B339-4ACC-B836-1CB354513F3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9DFAF32-B339-4ACC-B836-1CB354513F3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10095,7 +10045,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10155,7 +10105,7 @@
         <xdr:cNvPr id="28" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E240673-2E95-4FF8-83BA-F99DBFC6E74D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E240673-2E95-4FF8-83BA-F99DBFC6E74D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10164,7 +10114,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10224,7 +10174,7 @@
         <xdr:cNvPr id="29" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103EFB0C-2330-4B0A-96A0-B02F38F17BF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{103EFB0C-2330-4B0A-96A0-B02F38F17BF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10233,7 +10183,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10293,7 +10243,7 @@
         <xdr:cNvPr id="30" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C1C7A7-E7E6-4FEE-BC08-69B319F187AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27C1C7A7-E7E6-4FEE-BC08-69B319F187AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10302,7 +10252,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10362,7 +10312,7 @@
         <xdr:cNvPr id="31" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9783667C-F735-48B1-BB3A-E49F0931D579}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9783667C-F735-48B1-BB3A-E49F0931D579}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10371,7 +10321,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10431,7 +10381,7 @@
         <xdr:cNvPr id="32" name="图片 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D178F395-44EB-4346-B795-47BC7665DDCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D178F395-44EB-4346-B795-47BC7665DDCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10440,7 +10390,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10500,7 +10450,7 @@
         <xdr:cNvPr id="33" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D1F923-39FF-4F12-AA38-48669692FC06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63D1F923-39FF-4F12-AA38-48669692FC06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10509,7 +10459,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10569,7 +10519,7 @@
         <xdr:cNvPr id="34" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F551BB-D985-463A-BC8E-D2601F2657FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05F551BB-D985-463A-BC8E-D2601F2657FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10578,7 +10528,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10638,7 +10588,7 @@
         <xdr:cNvPr id="35" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8FBE04D-18BA-408F-B288-31E12C20F3F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8FBE04D-18BA-408F-B288-31E12C20F3F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10647,7 +10597,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10707,7 +10657,7 @@
         <xdr:cNvPr id="36" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7181D3DC-0AC5-45FB-9B02-1D005CE94C34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7181D3DC-0AC5-45FB-9B02-1D005CE94C34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10716,7 +10666,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10776,7 +10726,7 @@
         <xdr:cNvPr id="37" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AEE5A25-0336-4B08-8DD4-695EE383A496}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AEE5A25-0336-4B08-8DD4-695EE383A496}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10785,7 +10735,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10845,7 +10795,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2588A6-EFF2-4777-9897-07CC04F1E798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D2588A6-EFF2-4777-9897-07CC04F1E798}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10854,7 +10804,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10914,7 +10864,7 @@
         <xdr:cNvPr id="39" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C827DED-88C8-4C00-A7A0-3A4EEC051E3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C827DED-88C8-4C00-A7A0-3A4EEC051E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10923,7 +10873,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10983,7 +10933,7 @@
         <xdr:cNvPr id="40" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3618271-B5FA-4E15-A103-70A0753029D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3618271-B5FA-4E15-A103-70A0753029D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10992,7 +10942,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11052,7 +11002,7 @@
         <xdr:cNvPr id="41" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D68A53-3FDB-4258-BCA2-0FDFEC213E9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77D68A53-3FDB-4258-BCA2-0FDFEC213E9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11061,7 +11011,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11121,7 +11071,7 @@
         <xdr:cNvPr id="42" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8A8081-736D-4473-B9C8-A4A48263865D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A8A8081-736D-4473-B9C8-A4A48263865D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11130,7 +11080,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11190,7 +11140,7 @@
         <xdr:cNvPr id="43" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24425EFA-919D-48E5-B0F3-5EC88D169AA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24425EFA-919D-48E5-B0F3-5EC88D169AA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11199,7 +11149,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11259,7 +11209,7 @@
         <xdr:cNvPr id="44" name="图片 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3154C50D-3B12-425D-81FF-CF166EDB8CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3154C50D-3B12-425D-81FF-CF166EDB8CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11268,7 +11218,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11328,7 +11278,7 @@
         <xdr:cNvPr id="45" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7D4C5F-C9E3-4082-8452-9EC3A01B83AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B7D4C5F-C9E3-4082-8452-9EC3A01B83AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11337,7 +11287,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11397,7 +11347,7 @@
         <xdr:cNvPr id="46" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B520A81-EE76-4F3E-97C4-0F520C6DC362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B520A81-EE76-4F3E-97C4-0F520C6DC362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11406,7 +11356,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11466,7 +11416,7 @@
         <xdr:cNvPr id="47" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E83649-EECE-42DD-9C13-8C74684649C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71E83649-EECE-42DD-9C13-8C74684649C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11475,7 +11425,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11535,7 +11485,7 @@
         <xdr:cNvPr id="48" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6582F6-442E-405B-BDAA-564F9972E43F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD6582F6-442E-405B-BDAA-564F9972E43F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11544,7 +11494,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11604,7 +11554,7 @@
         <xdr:cNvPr id="49" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE113DA-C4FE-471D-AB55-B0143F63EA54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDE113DA-C4FE-471D-AB55-B0143F63EA54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11613,7 +11563,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11673,7 +11623,7 @@
         <xdr:cNvPr id="50" name="图片 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DA0833-96B1-41C4-8D0C-82DB47E3A212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74DA0833-96B1-41C4-8D0C-82DB47E3A212}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11682,7 +11632,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11742,7 +11692,7 @@
         <xdr:cNvPr id="51" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB03684-069F-412A-8BE2-4BA74A653CCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FB03684-069F-412A-8BE2-4BA74A653CCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11751,7 +11701,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11811,7 +11761,7 @@
         <xdr:cNvPr id="52" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A466B4-619D-49C6-A807-22E8178786D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80A466B4-619D-49C6-A807-22E8178786D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11820,7 +11770,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11880,7 +11830,7 @@
         <xdr:cNvPr id="53" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3186CF9B-8DD3-4794-88F5-DF910DE7774F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3186CF9B-8DD3-4794-88F5-DF910DE7774F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11889,7 +11839,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11949,7 +11899,7 @@
         <xdr:cNvPr id="54" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D1ECB6-D178-40FD-9E3E-8F6CF4660CD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44D1ECB6-D178-40FD-9E3E-8F6CF4660CD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11958,7 +11908,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12018,7 +11968,7 @@
         <xdr:cNvPr id="55" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4AD61FC-0712-43E9-8707-A969320C855D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4AD61FC-0712-43E9-8707-A969320C855D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12027,7 +11977,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12087,7 +12037,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0107AC67-558D-4C26-ACC2-71BF92952730}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0107AC67-558D-4C26-ACC2-71BF92952730}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12096,7 +12046,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12156,7 +12106,7 @@
         <xdr:cNvPr id="57" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D11648-E35E-4365-A575-67138593972D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08D11648-E35E-4365-A575-67138593972D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12165,7 +12115,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12225,7 +12175,7 @@
         <xdr:cNvPr id="58" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3BB0A6C-A228-46D1-BDC3-6A624132FF7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3BB0A6C-A228-46D1-BDC3-6A624132FF7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12234,7 +12184,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12294,7 +12244,7 @@
         <xdr:cNvPr id="59" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B71E7F-9E3B-451C-94C1-1C620CCA6108}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72B71E7F-9E3B-451C-94C1-1C620CCA6108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12303,7 +12253,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12363,7 +12313,7 @@
         <xdr:cNvPr id="60" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7774C529-A1ED-4CBC-BD91-111D5127179A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7774C529-A1ED-4CBC-BD91-111D5127179A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12372,7 +12322,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12432,7 +12382,7 @@
         <xdr:cNvPr id="61" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79D1018-F4AB-4922-B22E-91F37E6EA3EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A79D1018-F4AB-4922-B22E-91F37E6EA3EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12441,7 +12391,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12501,7 +12451,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3FC2BE-644E-453F-8614-85916BF6AB3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F3FC2BE-644E-453F-8614-85916BF6AB3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12510,7 +12460,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12570,7 +12520,7 @@
         <xdr:cNvPr id="64" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381FAEE3-2F4B-4E23-8256-6BCFEA52A90E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{381FAEE3-2F4B-4E23-8256-6BCFEA52A90E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12579,7 +12529,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12639,7 +12589,7 @@
         <xdr:cNvPr id="65" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A82821-F1CB-4F72-8D0E-2D4AF902408C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66A82821-F1CB-4F72-8D0E-2D4AF902408C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12648,7 +12598,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12708,7 +12658,7 @@
         <xdr:cNvPr id="66" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A055BDB2-18E6-45FE-A3C3-CA346ED83074}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A055BDB2-18E6-45FE-A3C3-CA346ED83074}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12717,7 +12667,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12777,7 +12727,7 @@
         <xdr:cNvPr id="67" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7D6B78-BE90-42A1-AA44-B7558609219B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C7D6B78-BE90-42A1-AA44-B7558609219B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12786,7 +12736,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12846,7 +12796,7 @@
         <xdr:cNvPr id="68" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD38FCC-B627-4829-8BE3-5BD872B7F362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AD38FCC-B627-4829-8BE3-5BD872B7F362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12855,7 +12805,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12915,7 +12865,7 @@
         <xdr:cNvPr id="69" name="图片 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85050EA8-D039-471D-86C4-59F0A7F93E2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85050EA8-D039-471D-86C4-59F0A7F93E2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12924,7 +12874,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12984,7 +12934,7 @@
         <xdr:cNvPr id="70" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235C7D17-878A-4E8A-95AA-DBB224A6BBE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{235C7D17-878A-4E8A-95AA-DBB224A6BBE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12993,7 +12943,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13053,7 +13003,7 @@
         <xdr:cNvPr id="71" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6F14A5-BBC4-44D0-BFF8-A08748000EE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED6F14A5-BBC4-44D0-BFF8-A08748000EE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13062,7 +13012,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13122,7 +13072,7 @@
         <xdr:cNvPr id="72" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3DB2C6-415C-4AB5-8356-E5095272FFBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D3DB2C6-415C-4AB5-8356-E5095272FFBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13131,7 +13081,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13191,7 +13141,7 @@
         <xdr:cNvPr id="73" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207300C0-3C1D-4963-828E-0F23246DD2F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{207300C0-3C1D-4963-828E-0F23246DD2F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13200,7 +13150,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13260,7 +13210,7 @@
         <xdr:cNvPr id="74" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE17659D-D136-432F-AF95-FB9828D326FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE17659D-D136-432F-AF95-FB9828D326FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13269,7 +13219,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13329,7 +13279,7 @@
         <xdr:cNvPr id="75" name="图片 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A8BC1F-0C9E-4EF0-A57A-1746237D9961}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9A8BC1F-0C9E-4EF0-A57A-1746237D9961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13338,7 +13288,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13398,7 +13348,7 @@
         <xdr:cNvPr id="76" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12CD3BC-5B61-422E-BC1D-5F2AEBC870E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C12CD3BC-5B61-422E-BC1D-5F2AEBC870E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13407,7 +13357,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13467,7 +13417,7 @@
         <xdr:cNvPr id="77" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6470EA-F24D-4265-98AD-5C05811B2431}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B6470EA-F24D-4265-98AD-5C05811B2431}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13476,7 +13426,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13536,7 +13486,7 @@
         <xdr:cNvPr id="78" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35C8AE9-0B6F-48C6-9EBA-D6A5BEA1F3C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F35C8AE9-0B6F-48C6-9EBA-D6A5BEA1F3C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13545,7 +13495,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13605,7 +13555,7 @@
         <xdr:cNvPr id="79" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9230C33F-C90F-4D87-BB7F-0E7B66E60908}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9230C33F-C90F-4D87-BB7F-0E7B66E60908}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13614,7 +13564,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13674,7 +13624,7 @@
         <xdr:cNvPr id="80" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C1EEC1-F59C-441A-9816-CC7CE3E37CFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16C1EEC1-F59C-441A-9816-CC7CE3E37CFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13683,7 +13633,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13743,7 +13693,7 @@
         <xdr:cNvPr id="81" name="图片 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366DE228-0857-4CF2-84C9-405700E67F07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{366DE228-0857-4CF2-84C9-405700E67F07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13752,7 +13702,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13812,7 +13762,7 @@
         <xdr:cNvPr id="82" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D2582C-B129-46F3-8F07-F39D3BFDCA4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74D2582C-B129-46F3-8F07-F39D3BFDCA4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13821,7 +13771,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13881,7 +13831,7 @@
         <xdr:cNvPr id="83" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD271544-EDC2-4036-8294-7855256BF166}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD271544-EDC2-4036-8294-7855256BF166}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13890,7 +13840,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13950,7 +13900,7 @@
         <xdr:cNvPr id="84" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4BC2C8-B98A-465E-AA44-3A3E52DB0098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C4BC2C8-B98A-465E-AA44-3A3E52DB0098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13959,7 +13909,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14019,7 +13969,7 @@
         <xdr:cNvPr id="85" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189F09B7-C5C9-40B0-A3B3-4D00AFC3B7C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{189F09B7-C5C9-40B0-A3B3-4D00AFC3B7C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14028,7 +13978,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14088,7 +14038,7 @@
         <xdr:cNvPr id="86" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366299C8-936A-491A-9550-ECAC4A325366}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{366299C8-936A-491A-9550-ECAC4A325366}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14097,7 +14047,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14162,7 +14112,7 @@
         <xdr:cNvPr id="87" name="图片 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116B5AA2-E1FE-4868-B21E-88F8B2C14771}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{116B5AA2-E1FE-4868-B21E-88F8B2C14771}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14171,7 +14121,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -14234,7 +14184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14269,7 +14219,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14446,14 +14396,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
@@ -14489,169 +14439,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="61" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="208" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="173"/>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="173"/>
-      <c r="AJ1" s="173"/>
-      <c r="AK1" s="173"/>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="173"/>
-      <c r="AN1" s="173"/>
-      <c r="AO1" s="173"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="208"/>
+      <c r="AB1" s="208"/>
+      <c r="AC1" s="208"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="208"/>
+      <c r="AG1" s="208"/>
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
+      <c r="AK1" s="208"/>
+      <c r="AL1" s="208"/>
+      <c r="AM1" s="208"/>
+      <c r="AN1" s="208"/>
+      <c r="AO1" s="208"/>
       <c r="AP1" s="62"/>
       <c r="AQ1" s="62"/>
       <c r="AR1" s="62"/>
     </row>
     <row r="2" spans="1:47" s="61" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="174"/>
-      <c r="AJ2" s="174"/>
-      <c r="AK2" s="174"/>
-      <c r="AL2" s="174"/>
-      <c r="AM2" s="174"/>
-      <c r="AN2" s="174"/>
-      <c r="AO2" s="174"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="209"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="209"/>
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="209"/>
+      <c r="AG2" s="209"/>
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="209"/>
+      <c r="AJ2" s="209"/>
+      <c r="AK2" s="209"/>
+      <c r="AL2" s="209"/>
+      <c r="AM2" s="209"/>
+      <c r="AN2" s="209"/>
+      <c r="AO2" s="209"/>
       <c r="AP2" s="62"/>
       <c r="AQ2" s="62"/>
       <c r="AR2" s="62"/>
     </row>
     <row r="3" spans="1:47" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="210" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="213" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="164" t="s">
+      <c r="E3" s="213" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="178" t="s">
+      <c r="F3" s="215" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="178" t="s">
+      <c r="G3" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="179" t="s">
+      <c r="H3" s="216" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="183" t="s">
+      <c r="I3" s="220" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="184"/>
-      <c r="K3" s="178" t="s">
+      <c r="J3" s="221"/>
+      <c r="K3" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="181" t="s">
+      <c r="L3" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="182"/>
-      <c r="N3" s="181" t="s">
+      <c r="M3" s="219"/>
+      <c r="N3" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="182"/>
-      <c r="P3" s="181" t="s">
+      <c r="O3" s="219"/>
+      <c r="P3" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="187" t="s">
+      <c r="Q3" s="219"/>
+      <c r="R3" s="224" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="188" t="s">
+      <c r="S3" s="225" t="s">
         <v>93</v>
       </c>
-      <c r="T3" s="189"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="166" t="s">
+      <c r="T3" s="226"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="207" t="s">
         <v>94</v>
       </c>
-      <c r="W3" s="166" t="s">
+      <c r="W3" s="207" t="s">
         <v>95</v>
       </c>
-      <c r="X3" s="166" t="s">
+      <c r="X3" s="207" t="s">
         <v>96</v>
       </c>
-      <c r="Y3" s="166" t="s">
+      <c r="Y3" s="207" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" s="168" t="s">
+      <c r="Z3" s="228" t="s">
         <v>98</v>
       </c>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="170"/>
+      <c r="AA3" s="229"/>
+      <c r="AB3" s="229"/>
+      <c r="AC3" s="229"/>
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="230"/>
       <c r="AF3" s="92" t="s">
         <v>118</v>
       </c>
@@ -14670,41 +14620,41 @@
       <c r="AK3" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="AL3" s="167" t="s">
+      <c r="AL3" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="AM3" s="167" t="s">
+      <c r="AM3" s="231" t="s">
         <v>100</v>
       </c>
-      <c r="AN3" s="167" t="s">
+      <c r="AN3" s="231" t="s">
         <v>101</v>
       </c>
-      <c r="AO3" s="167" t="s">
+      <c r="AO3" s="231" t="s">
         <v>102</v>
       </c>
-      <c r="AP3" s="168" t="s">
+      <c r="AP3" s="228" t="s">
         <v>103</v>
       </c>
-      <c r="AQ3" s="169"/>
-      <c r="AR3" s="170"/>
-      <c r="AS3" s="168" t="s">
+      <c r="AQ3" s="229"/>
+      <c r="AR3" s="230"/>
+      <c r="AS3" s="228" t="s">
         <v>104</v>
       </c>
-      <c r="AT3" s="169"/>
-      <c r="AU3" s="170"/>
+      <c r="AT3" s="229"/>
+      <c r="AU3" s="230"/>
     </row>
     <row r="4" spans="1:47" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A4" s="176"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="178"/>
+      <c r="A4" s="211"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="215"/>
       <c r="L4" s="65" t="s">
         <v>105</v>
       </c>
@@ -14723,7 +14673,7 @@
       <c r="Q4" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="187"/>
+      <c r="R4" s="224"/>
       <c r="S4" s="92" t="s">
         <v>109</v>
       </c>
@@ -14733,10 +14683,10 @@
       <c r="U4" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="166"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
       <c r="Z4" s="66" t="s">
         <v>112</v>
       </c>
@@ -14773,10 +14723,10 @@
       <c r="AK4" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="AL4" s="167"/>
-      <c r="AM4" s="167"/>
-      <c r="AN4" s="167"/>
-      <c r="AO4" s="167"/>
+      <c r="AL4" s="231"/>
+      <c r="AM4" s="231"/>
+      <c r="AN4" s="231"/>
+      <c r="AO4" s="231"/>
       <c r="AP4" s="66" t="s">
         <v>179</v>
       </c>
@@ -14819,10 +14769,10 @@
       <c r="H5" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="171" t="s">
+      <c r="I5" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="172"/>
+      <c r="J5" s="206"/>
       <c r="K5" s="70" t="s">
         <v>128</v>
       </c>
@@ -22106,6 +22056,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="B1:AO2"/>
@@ -22122,18 +22084,6 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22143,11 +22093,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9089CBB8-DCC9-4DD5-ABDE-58B24D7C1F39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:H47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22170,56 +22120,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="252"/>
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="250" t="s">
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="251"/>
-      <c r="F2" s="250" t="s">
+      <c r="E2" s="198"/>
+      <c r="F2" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="252"/>
-      <c r="H2" s="253" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="252"/>
+      <c r="I2" s="199"/>
       <c r="J2" s="254" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="254"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="256" t="s">
+      <c r="L2" s="201"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="257"/>
+      <c r="O2" s="203"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="224"/>
+      <c r="B3" s="176"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -22244,20 +22194,20 @@
       <c r="A4" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="177" t="s">
         <v>190</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="58"/>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="237" t="s">
+      <c r="G4" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="238"/>
-      <c r="I4" s="239"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="189"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -22267,18 +22217,18 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="226"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="236" t="s">
+      <c r="F5" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="237" t="s">
+      <c r="G5" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="238"/>
-      <c r="I5" s="239"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="189"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -22288,18 +22238,18 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="226"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="236" t="s">
+      <c r="F6" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="237" t="s">
+      <c r="G6" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="240"/>
-      <c r="I6" s="239"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="189"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -22309,18 +22259,18 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="226"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="236" t="s">
+      <c r="F7" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="237" t="s">
+      <c r="G7" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="240"/>
-      <c r="I7" s="239"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="189"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -22330,18 +22280,18 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="226"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="236" t="s">
+      <c r="F8" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="237" t="s">
+      <c r="G8" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="240"/>
-      <c r="I8" s="239"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="189"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -22351,18 +22301,18 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="226"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="236" t="s">
+      <c r="F9" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="237" t="s">
+      <c r="G9" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="240"/>
-      <c r="I9" s="238"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="188"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -22372,18 +22322,18 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="226"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="236" t="s">
+      <c r="F10" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="237" t="s">
+      <c r="G10" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="240"/>
-      <c r="I10" s="239"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="189"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -22393,18 +22343,18 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="226"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="236" t="s">
+      <c r="F11" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="237" t="s">
+      <c r="G11" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="240"/>
-      <c r="I11" s="239"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="189"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -22414,18 +22364,18 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="226"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="236" t="s">
+      <c r="F12" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="237" t="s">
+      <c r="G12" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="240"/>
-      <c r="I12" s="239"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="189"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -22435,18 +22385,18 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="226"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="236" t="s">
+      <c r="F13" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="237" t="s">
+      <c r="G13" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="240"/>
-      <c r="I13" s="238"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="188"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -22456,18 +22406,18 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="226"/>
+      <c r="B14" s="178"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="241" t="s">
+      <c r="F14" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="237" t="s">
+      <c r="G14" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="242"/>
-      <c r="I14" s="243"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="193"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -22477,18 +22427,18 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="226"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="241" t="s">
+      <c r="F15" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="237" t="s">
+      <c r="G15" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="242"/>
-      <c r="I15" s="244"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="194"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -22500,10 +22450,10 @@
       <c r="A16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="258" t="s">
+      <c r="B16" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="211" t="s">
+      <c r="C16" s="165" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -22547,8 +22497,8 @@
       <c r="A17" s="162">
         <v>1</v>
       </c>
-      <c r="B17" s="212"/>
-      <c r="C17" s="210"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="19"/>
@@ -22566,7 +22516,7 @@
       <c r="A18" s="162">
         <v>2</v>
       </c>
-      <c r="B18" s="212"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="20"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -22585,7 +22535,7 @@
       <c r="A19" s="162">
         <v>3</v>
       </c>
-      <c r="B19" s="212"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="20"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -22604,7 +22554,7 @@
       <c r="A20" s="162">
         <v>4</v>
       </c>
-      <c r="B20" s="212"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="20"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -22623,7 +22573,7 @@
       <c r="A21" s="162">
         <v>5</v>
       </c>
-      <c r="B21" s="212"/>
+      <c r="B21" s="166"/>
       <c r="C21" s="20"/>
       <c r="D21" s="18"/>
       <c r="E21" s="59"/>
@@ -22642,7 +22592,7 @@
       <c r="A22" s="162">
         <v>6</v>
       </c>
-      <c r="B22" s="212"/>
+      <c r="B22" s="166"/>
       <c r="C22" s="20"/>
       <c r="D22" s="18"/>
       <c r="E22" s="59"/>
@@ -22661,7 +22611,7 @@
       <c r="A23" s="162">
         <v>7</v>
       </c>
-      <c r="B23" s="212"/>
+      <c r="B23" s="166"/>
       <c r="C23" s="20"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -22680,7 +22630,7 @@
       <c r="A24" s="162">
         <v>8</v>
       </c>
-      <c r="B24" s="212"/>
+      <c r="B24" s="166"/>
       <c r="C24" s="20"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -22699,7 +22649,7 @@
       <c r="A25" s="162">
         <v>9</v>
       </c>
-      <c r="B25" s="212"/>
+      <c r="B25" s="166"/>
       <c r="C25" s="20"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -22718,7 +22668,7 @@
       <c r="A26" s="162">
         <v>10</v>
       </c>
-      <c r="B26" s="212"/>
+      <c r="B26" s="166"/>
       <c r="C26" s="20"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -22737,7 +22687,7 @@
       <c r="A27" s="162">
         <v>11</v>
       </c>
-      <c r="B27" s="212"/>
+      <c r="B27" s="166"/>
       <c r="C27" s="20"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -22756,7 +22706,7 @@
       <c r="A28" s="162">
         <v>12</v>
       </c>
-      <c r="B28" s="212"/>
+      <c r="B28" s="166"/>
       <c r="C28" s="20"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -22775,7 +22725,7 @@
       <c r="A29" s="162">
         <v>13</v>
       </c>
-      <c r="B29" s="212"/>
+      <c r="B29" s="166"/>
       <c r="C29" s="20"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -22794,7 +22744,7 @@
       <c r="A30" s="162">
         <v>14</v>
       </c>
-      <c r="B30" s="223"/>
+      <c r="B30" s="175"/>
       <c r="C30" s="20"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -22813,7 +22763,7 @@
       <c r="A31" s="162">
         <v>15</v>
       </c>
-      <c r="B31" s="212"/>
+      <c r="B31" s="166"/>
       <c r="C31" s="20"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -22832,121 +22782,121 @@
       <c r="A32" s="162">
         <v>16</v>
       </c>
-      <c r="B32" s="212"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="215"/>
-      <c r="J32" s="216"/>
-      <c r="K32" s="215"/>
-      <c r="L32" s="217"/>
-      <c r="M32" s="217"/>
-      <c r="N32" s="218"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="171"/>
+      <c r="M32" s="171"/>
+      <c r="N32" s="172"/>
       <c r="O32" s="23"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="162">
         <v>17</v>
       </c>
-      <c r="B33" s="212"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="214"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="216"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="217"/>
-      <c r="M33" s="217"/>
-      <c r="N33" s="218"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="169"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="172"/>
       <c r="O33" s="23"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="162">
         <v>18</v>
       </c>
-      <c r="B34" s="212"/>
-      <c r="C34" s="213"/>
-      <c r="D34" s="214"/>
-      <c r="E34" s="214"/>
-      <c r="F34" s="215"/>
-      <c r="G34" s="214"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="215"/>
-      <c r="J34" s="216"/>
-      <c r="K34" s="215"/>
-      <c r="L34" s="217"/>
-      <c r="M34" s="217"/>
-      <c r="N34" s="218"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="169"/>
+      <c r="L34" s="171"/>
+      <c r="M34" s="171"/>
+      <c r="N34" s="172"/>
       <c r="O34" s="23"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="162">
         <v>19</v>
       </c>
-      <c r="B35" s="212"/>
-      <c r="C35" s="213"/>
-      <c r="D35" s="214"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="214"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="216"/>
-      <c r="K35" s="215"/>
-      <c r="L35" s="217"/>
-      <c r="M35" s="217"/>
-      <c r="N35" s="218"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="169"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="169"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="171"/>
+      <c r="N35" s="172"/>
       <c r="O35" s="23"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="162">
         <v>20</v>
       </c>
-      <c r="B36" s="212"/>
-      <c r="C36" s="213"/>
-      <c r="D36" s="214"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="215"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="215"/>
-      <c r="J36" s="216"/>
-      <c r="K36" s="215"/>
-      <c r="L36" s="217"/>
-      <c r="M36" s="217"/>
-      <c r="N36" s="218"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="169"/>
+      <c r="L36" s="171"/>
+      <c r="M36" s="171"/>
+      <c r="N36" s="172"/>
       <c r="O36" s="23"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="162">
         <v>21</v>
       </c>
-      <c r="B37" s="212"/>
-      <c r="C37" s="213"/>
-      <c r="D37" s="214"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="214"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="216"/>
-      <c r="K37" s="215"/>
-      <c r="L37" s="217"/>
-      <c r="M37" s="217"/>
-      <c r="N37" s="218"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="168"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="171"/>
+      <c r="N37" s="172"/>
       <c r="O37" s="23"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="162">
         <v>22</v>
       </c>
-      <c r="B38" s="212"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="20"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -22965,7 +22915,7 @@
       <c r="A39" s="162">
         <v>23</v>
       </c>
-      <c r="B39" s="212"/>
+      <c r="B39" s="166"/>
       <c r="C39" s="20"/>
       <c r="D39" s="24"/>
       <c r="E39" s="18"/>
@@ -22984,7 +22934,7 @@
       <c r="A40" s="162">
         <v>24</v>
       </c>
-      <c r="B40" s="212"/>
+      <c r="B40" s="166"/>
       <c r="C40" s="20"/>
       <c r="D40" s="24"/>
       <c r="E40" s="18"/>
@@ -23003,7 +22953,7 @@
       <c r="A41" s="162">
         <v>25</v>
       </c>
-      <c r="B41" s="212"/>
+      <c r="B41" s="166"/>
       <c r="C41" s="20"/>
       <c r="D41" s="24"/>
       <c r="E41" s="18"/>
@@ -23022,7 +22972,7 @@
       <c r="A42" s="162">
         <v>26</v>
       </c>
-      <c r="B42" s="212"/>
+      <c r="B42" s="166"/>
       <c r="C42" s="20"/>
       <c r="D42" s="24"/>
       <c r="E42" s="18"/>
@@ -23041,7 +22991,7 @@
       <c r="A43" s="162">
         <v>27</v>
       </c>
-      <c r="B43" s="212"/>
+      <c r="B43" s="166"/>
       <c r="C43" s="20"/>
       <c r="D43" s="26"/>
       <c r="E43" s="18"/>
@@ -23057,16 +23007,16 @@
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="204" t="s">
+      <c r="A44" s="249" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="204"/>
-      <c r="C44" s="204"/>
-      <c r="D44" s="204"/>
-      <c r="E44" s="204"/>
-      <c r="F44" s="204"/>
-      <c r="G44" s="204"/>
-      <c r="H44" s="204"/>
+      <c r="B44" s="249"/>
+      <c r="C44" s="249"/>
+      <c r="D44" s="249"/>
+      <c r="E44" s="249"/>
+      <c r="F44" s="249"/>
+      <c r="G44" s="249"/>
+      <c r="H44" s="249"/>
       <c r="I44" s="19">
         <v>32.526087799999992</v>
       </c>
@@ -23078,16 +23028,16 @@
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="204" t="s">
+      <c r="A45" s="249" t="s">
         <v>187</v>
       </c>
-      <c r="B45" s="204"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="204"/>
-      <c r="F45" s="204"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="204"/>
+      <c r="B45" s="249"/>
+      <c r="C45" s="249"/>
+      <c r="D45" s="249"/>
+      <c r="E45" s="249"/>
+      <c r="F45" s="249"/>
+      <c r="G45" s="249"/>
+      <c r="H45" s="249"/>
       <c r="I45" s="19">
         <v>4.1164183999999997</v>
       </c>
@@ -23099,16 +23049,16 @@
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="204" t="s">
+      <c r="A46" s="249" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="204"/>
-      <c r="C46" s="204"/>
-      <c r="D46" s="204"/>
-      <c r="E46" s="204"/>
-      <c r="F46" s="204"/>
-      <c r="G46" s="204"/>
-      <c r="H46" s="204"/>
+      <c r="B46" s="249"/>
+      <c r="C46" s="249"/>
+      <c r="D46" s="249"/>
+      <c r="E46" s="249"/>
+      <c r="F46" s="249"/>
+      <c r="G46" s="249"/>
+      <c r="H46" s="249"/>
       <c r="I46" s="19">
         <v>1.2172248000000001</v>
       </c>
@@ -23122,14 +23072,14 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="157"/>
-      <c r="C47" s="196" t="s">
+      <c r="C47" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="201"/>
-      <c r="E47" s="201"/>
-      <c r="F47" s="201"/>
-      <c r="G47" s="201"/>
-      <c r="H47" s="197"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="237"/>
+      <c r="F47" s="237"/>
+      <c r="G47" s="237"/>
+      <c r="H47" s="233"/>
       <c r="I47" s="32">
         <f>SUM(I44:I46)</f>
         <v>37.859730999999989</v>
@@ -23139,8 +23089,8 @@
         <f>SUM(K17:K43)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="228"/>
-      <c r="M47" s="229"/>
+      <c r="L47" s="180"/>
+      <c r="M47" s="181"/>
       <c r="N47" s="34"/>
       <c r="O47" s="34"/>
     </row>
@@ -23149,10 +23099,10 @@
       <c r="B48" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="205" t="s">
+      <c r="C48" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="206"/>
+      <c r="D48" s="241"/>
       <c r="E48" s="36" t="s">
         <v>44</v>
       </c>
@@ -23176,25 +23126,25 @@
         <v>35</v>
       </c>
       <c r="M48" s="38"/>
-      <c r="N48" s="227"/>
+      <c r="N48" s="179"/>
       <c r="O48" s="37"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="162">
         <v>1</v>
       </c>
-      <c r="B49" s="231"/>
-      <c r="C49" s="232"/>
-      <c r="D49" s="233"/>
-      <c r="E49" s="219"/>
-      <c r="F49" s="220"/>
-      <c r="G49" s="234"/>
-      <c r="H49" s="234"/>
-      <c r="I49" s="220"/>
-      <c r="J49" s="220"/>
-      <c r="K49" s="220"/>
-      <c r="L49" s="230"/>
-      <c r="M49" s="230"/>
+      <c r="B49" s="183"/>
+      <c r="C49" s="247"/>
+      <c r="D49" s="248"/>
+      <c r="E49" s="173"/>
+      <c r="F49" s="174"/>
+      <c r="G49" s="184"/>
+      <c r="H49" s="184"/>
+      <c r="I49" s="174"/>
+      <c r="J49" s="174"/>
+      <c r="K49" s="174"/>
+      <c r="L49" s="182"/>
+      <c r="M49" s="182"/>
       <c r="N49" s="41"/>
       <c r="O49" s="41"/>
     </row>
@@ -23202,16 +23152,16 @@
       <c r="A50" s="162">
         <v>2</v>
       </c>
-      <c r="B50" s="231"/>
-      <c r="C50" s="232"/>
-      <c r="D50" s="233"/>
-      <c r="E50" s="219"/>
-      <c r="F50" s="220"/>
-      <c r="G50" s="234"/>
-      <c r="H50" s="234"/>
-      <c r="I50" s="220"/>
-      <c r="J50" s="220"/>
-      <c r="K50" s="220"/>
+      <c r="B50" s="183"/>
+      <c r="C50" s="247"/>
+      <c r="D50" s="248"/>
+      <c r="E50" s="173"/>
+      <c r="F50" s="174"/>
+      <c r="G50" s="184"/>
+      <c r="H50" s="184"/>
+      <c r="I50" s="174"/>
+      <c r="J50" s="174"/>
+      <c r="K50" s="174"/>
       <c r="L50" s="40"/>
       <c r="M50" s="121"/>
       <c r="N50" s="41"/>
@@ -23221,16 +23171,16 @@
       <c r="A51" s="162">
         <v>3</v>
       </c>
-      <c r="B51" s="231"/>
-      <c r="C51" s="232"/>
-      <c r="D51" s="233"/>
-      <c r="E51" s="219"/>
-      <c r="F51" s="220"/>
-      <c r="G51" s="234"/>
-      <c r="H51" s="234"/>
-      <c r="I51" s="220"/>
-      <c r="J51" s="220"/>
-      <c r="K51" s="220"/>
+      <c r="B51" s="183"/>
+      <c r="C51" s="247"/>
+      <c r="D51" s="248"/>
+      <c r="E51" s="173"/>
+      <c r="F51" s="174"/>
+      <c r="G51" s="184"/>
+      <c r="H51" s="184"/>
+      <c r="I51" s="174"/>
+      <c r="J51" s="174"/>
+      <c r="K51" s="174"/>
       <c r="L51" s="21"/>
       <c r="M51" s="119"/>
       <c r="N51" s="42"/>
@@ -23240,16 +23190,16 @@
       <c r="A52" s="162">
         <v>4</v>
       </c>
-      <c r="B52" s="231"/>
-      <c r="C52" s="232"/>
-      <c r="D52" s="233"/>
-      <c r="E52" s="219"/>
-      <c r="F52" s="220"/>
-      <c r="G52" s="234"/>
-      <c r="H52" s="234"/>
-      <c r="I52" s="220"/>
-      <c r="J52" s="220"/>
-      <c r="K52" s="220"/>
+      <c r="B52" s="183"/>
+      <c r="C52" s="247"/>
+      <c r="D52" s="248"/>
+      <c r="E52" s="173"/>
+      <c r="F52" s="174"/>
+      <c r="G52" s="184"/>
+      <c r="H52" s="184"/>
+      <c r="I52" s="174"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="174"/>
       <c r="L52" s="29"/>
       <c r="M52" s="126"/>
       <c r="N52" s="60"/>
@@ -23259,16 +23209,16 @@
       <c r="A53" s="162">
         <v>5</v>
       </c>
-      <c r="B53" s="231"/>
-      <c r="C53" s="232"/>
-      <c r="D53" s="233"/>
-      <c r="E53" s="219"/>
-      <c r="F53" s="219"/>
-      <c r="G53" s="219"/>
-      <c r="H53" s="219"/>
-      <c r="I53" s="220"/>
-      <c r="J53" s="220"/>
-      <c r="K53" s="220"/>
+      <c r="B53" s="183"/>
+      <c r="C53" s="247"/>
+      <c r="D53" s="248"/>
+      <c r="E53" s="173"/>
+      <c r="F53" s="173"/>
+      <c r="G53" s="173"/>
+      <c r="H53" s="173"/>
+      <c r="I53" s="174"/>
+      <c r="J53" s="174"/>
+      <c r="K53" s="174"/>
       <c r="L53" s="153"/>
       <c r="M53" s="126"/>
       <c r="N53" s="60"/>
@@ -23278,16 +23228,16 @@
       <c r="A54" s="162">
         <v>6</v>
       </c>
-      <c r="B54" s="231"/>
-      <c r="C54" s="232"/>
-      <c r="D54" s="233"/>
-      <c r="E54" s="219"/>
-      <c r="F54" s="220"/>
-      <c r="G54" s="235"/>
-      <c r="H54" s="235"/>
-      <c r="I54" s="220"/>
-      <c r="J54" s="220"/>
-      <c r="K54" s="220"/>
+      <c r="B54" s="183"/>
+      <c r="C54" s="247"/>
+      <c r="D54" s="248"/>
+      <c r="E54" s="173"/>
+      <c r="F54" s="174"/>
+      <c r="G54" s="185"/>
+      <c r="H54" s="185"/>
+      <c r="I54" s="174"/>
+      <c r="J54" s="174"/>
+      <c r="K54" s="174"/>
       <c r="L54" s="153"/>
       <c r="M54" s="126"/>
       <c r="N54" s="60"/>
@@ -23296,14 +23246,14 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="157"/>
-      <c r="C55" s="198" t="s">
+      <c r="C55" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="198"/>
-      <c r="E55" s="198"/>
-      <c r="F55" s="207"/>
-      <c r="G55" s="207"/>
-      <c r="H55" s="198"/>
+      <c r="D55" s="234"/>
+      <c r="E55" s="234"/>
+      <c r="F55" s="246"/>
+      <c r="G55" s="246"/>
+      <c r="H55" s="234"/>
       <c r="I55" s="32">
         <f>SUM(I49:I54)</f>
         <v>0</v>
@@ -23325,10 +23275,10 @@
       <c r="B56" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="205" t="s">
+      <c r="C56" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="206"/>
+      <c r="D56" s="241"/>
       <c r="E56" s="36" t="s">
         <v>52</v>
       </c>
@@ -23362,10 +23312,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="160"/>
-      <c r="C57" s="245"/>
-      <c r="D57" s="246"/>
-      <c r="E57" s="247"/>
-      <c r="F57" s="247"/>
+      <c r="C57" s="244"/>
+      <c r="D57" s="245"/>
+      <c r="E57" s="195"/>
+      <c r="F57" s="195"/>
       <c r="G57" s="19"/>
       <c r="H57" s="41"/>
       <c r="I57" s="19"/>
@@ -23379,14 +23329,14 @@
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="157"/>
-      <c r="C58" s="198" t="s">
+      <c r="C58" s="234" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="198"/>
-      <c r="E58" s="198"/>
-      <c r="F58" s="207"/>
-      <c r="G58" s="207"/>
-      <c r="H58" s="198"/>
+      <c r="D58" s="234"/>
+      <c r="E58" s="234"/>
+      <c r="F58" s="246"/>
+      <c r="G58" s="246"/>
+      <c r="H58" s="234"/>
       <c r="I58" s="32">
         <f>I57</f>
         <v>0</v>
@@ -23408,10 +23358,10 @@
       <c r="B59" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="205" t="s">
+      <c r="C59" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="206"/>
+      <c r="D59" s="241"/>
       <c r="E59" s="36" t="s">
         <v>52</v>
       </c>
@@ -23445,10 +23395,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="160"/>
-      <c r="C60" s="202" t="s">
+      <c r="C60" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="203"/>
+      <c r="D60" s="239"/>
       <c r="E60" s="46"/>
       <c r="F60" s="45"/>
       <c r="G60" s="19" t="s">
@@ -23468,10 +23418,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="160"/>
-      <c r="C61" s="202" t="s">
+      <c r="C61" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="203"/>
+      <c r="D61" s="239"/>
       <c r="E61" s="46" t="s">
         <v>59</v>
       </c>
@@ -23493,10 +23443,10 @@
         <v>3</v>
       </c>
       <c r="B62" s="160"/>
-      <c r="C62" s="202" t="s">
+      <c r="C62" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="203"/>
+      <c r="D62" s="239"/>
       <c r="E62" s="46" t="s">
         <v>61</v>
       </c>
@@ -23518,10 +23468,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="160"/>
-      <c r="C63" s="202" t="s">
+      <c r="C63" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="203"/>
+      <c r="D63" s="239"/>
       <c r="E63" s="46" t="s">
         <v>62</v>
       </c>
@@ -23543,10 +23493,10 @@
         <v>5</v>
       </c>
       <c r="B64" s="160"/>
-      <c r="C64" s="202" t="s">
+      <c r="C64" s="238" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="203"/>
+      <c r="D64" s="239"/>
       <c r="E64" s="46"/>
       <c r="F64" s="45"/>
       <c r="G64" s="19" t="s">
@@ -23566,10 +23516,10 @@
         <v>6</v>
       </c>
       <c r="B65" s="160"/>
-      <c r="C65" s="202" t="s">
+      <c r="C65" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="D65" s="203"/>
+      <c r="D65" s="239"/>
       <c r="E65" s="46"/>
       <c r="F65" s="45"/>
       <c r="G65" s="19" t="s">
@@ -23589,10 +23539,10 @@
         <v>7</v>
       </c>
       <c r="B66" s="160"/>
-      <c r="C66" s="202" t="s">
+      <c r="C66" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="203"/>
+      <c r="D66" s="239"/>
       <c r="E66" s="46"/>
       <c r="F66" s="45"/>
       <c r="G66" s="19" t="s">
@@ -23612,10 +23562,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="160"/>
-      <c r="C67" s="202" t="s">
+      <c r="C67" s="238" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="203"/>
+      <c r="D67" s="239"/>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
       <c r="G67" s="19"/>
@@ -23633,11 +23583,11 @@
         <v>9</v>
       </c>
       <c r="B68" s="160"/>
-      <c r="C68" s="202"/>
-      <c r="D68" s="203"/>
+      <c r="C68" s="238"/>
+      <c r="D68" s="239"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
-      <c r="G68" s="247"/>
+      <c r="G68" s="195"/>
       <c r="H68" s="41"/>
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
@@ -23650,14 +23600,14 @@
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="43"/>
       <c r="B69" s="157"/>
-      <c r="C69" s="196" t="s">
+      <c r="C69" s="232" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="201"/>
-      <c r="E69" s="201"/>
-      <c r="F69" s="201"/>
-      <c r="G69" s="201"/>
-      <c r="H69" s="201"/>
+      <c r="D69" s="237"/>
+      <c r="E69" s="237"/>
+      <c r="F69" s="237"/>
+      <c r="G69" s="237"/>
+      <c r="H69" s="237"/>
       <c r="I69" s="31"/>
       <c r="J69" s="31"/>
       <c r="K69" s="32">
@@ -23674,16 +23624,16 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="157"/>
-      <c r="C70" s="196" t="s">
+      <c r="C70" s="232" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="201"/>
-      <c r="E70" s="201"/>
-      <c r="F70" s="201"/>
-      <c r="G70" s="201"/>
-      <c r="H70" s="201"/>
-      <c r="I70" s="201"/>
-      <c r="J70" s="197"/>
+      <c r="D70" s="237"/>
+      <c r="E70" s="237"/>
+      <c r="F70" s="237"/>
+      <c r="G70" s="237"/>
+      <c r="H70" s="237"/>
+      <c r="I70" s="237"/>
+      <c r="J70" s="233"/>
       <c r="K70" s="32">
         <f>K69+K58+K55+K47</f>
         <v>0</v>
@@ -23700,10 +23650,10 @@
       <c r="B71" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="205" t="s">
+      <c r="C71" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="206"/>
+      <c r="D71" s="241"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
       <c r="G71" s="36" t="s">
@@ -23733,10 +23683,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="160"/>
-      <c r="C72" s="191" t="s">
+      <c r="C72" s="242" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="192"/>
+      <c r="D72" s="243"/>
       <c r="E72" s="18"/>
       <c r="F72" s="19"/>
       <c r="G72" s="18" t="s">
@@ -23756,10 +23706,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="160"/>
-      <c r="C73" s="191" t="s">
+      <c r="C73" s="242" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="192"/>
+      <c r="D73" s="243"/>
       <c r="E73" s="18"/>
       <c r="F73" s="19"/>
       <c r="G73" s="18" t="s">
@@ -23777,17 +23727,17 @@
     <row r="74" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
       <c r="B74" s="157"/>
-      <c r="C74" s="196" t="s">
+      <c r="C74" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="D74" s="197"/>
+      <c r="D74" s="233"/>
       <c r="E74" s="157"/>
-      <c r="F74" s="198" t="s">
+      <c r="F74" s="234" t="s">
         <v>73</v>
       </c>
-      <c r="G74" s="198"/>
-      <c r="H74" s="198"/>
-      <c r="I74" s="198"/>
+      <c r="G74" s="234"/>
+      <c r="H74" s="234"/>
+      <c r="I74" s="234"/>
       <c r="J74" s="54"/>
       <c r="K74" s="32"/>
       <c r="L74" s="33" t="s">
@@ -23800,17 +23750,17 @@
     <row r="75" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="157"/>
-      <c r="C75" s="199" t="s">
+      <c r="C75" s="235" t="s">
         <v>74</v>
       </c>
-      <c r="D75" s="200"/>
+      <c r="D75" s="236"/>
       <c r="E75" s="158"/>
-      <c r="F75" s="196" t="s">
+      <c r="F75" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="201"/>
-      <c r="H75" s="201"/>
-      <c r="I75" s="201"/>
+      <c r="G75" s="237"/>
+      <c r="H75" s="237"/>
+      <c r="I75" s="237"/>
       <c r="J75" s="32"/>
       <c r="K75" s="32"/>
       <c r="L75" s="55" t="s">
@@ -23822,6 +23772,33 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="F74:I74"/>
     <mergeCell ref="C75:D75"/>
@@ -23832,33 +23809,6 @@
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23868,10 +23818,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FC8DB4-AD25-4D42-A711-04E64EB75ED6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
@@ -23895,66 +23845,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="252"/>
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="249" t="s">
+      <c r="B2" s="253" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="250" t="s">
+      <c r="C2" s="253"/>
+      <c r="D2" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="251">
+      <c r="E2" s="198">
         <v>55</v>
       </c>
-      <c r="F2" s="250" t="s">
+      <c r="F2" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="252">
+      <c r="G2" s="199">
         <v>2700</v>
       </c>
-      <c r="H2" s="253" t="s">
+      <c r="H2" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="252">
+      <c r="I2" s="199">
         <v>1800</v>
       </c>
       <c r="J2" s="254" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="254"/>
-      <c r="L2" s="255">
+      <c r="L2" s="201">
         <v>4.8600000000000003</v>
       </c>
-      <c r="M2" s="256"/>
-      <c r="N2" s="256" t="s">
+      <c r="M2" s="202"/>
+      <c r="N2" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="257"/>
+      <c r="O2" s="203"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="224"/>
+      <c r="B3" s="176"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -23979,22 +23929,22 @@
       <c r="A4" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="177" t="s">
         <v>190</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="58"/>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="237" t="s">
+      <c r="G4" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="238">
+      <c r="H4" s="188">
         <v>1800</v>
       </c>
-      <c r="I4" s="239">
+      <c r="I4" s="189">
         <f>H4-I13*2</f>
         <v>1700</v>
       </c>
@@ -24007,20 +23957,20 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="226"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="236" t="s">
+      <c r="F5" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="237" t="s">
+      <c r="G5" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="238">
+      <c r="H5" s="188">
         <v>2700</v>
       </c>
-      <c r="I5" s="239">
+      <c r="I5" s="189">
         <f>H5-I13*2</f>
         <v>2600</v>
       </c>
@@ -24033,18 +23983,18 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="226"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="236" t="s">
+      <c r="F6" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="237" t="s">
+      <c r="G6" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="240"/>
-      <c r="I6" s="239">
+      <c r="H6" s="190"/>
+      <c r="I6" s="189">
         <f>I4-I7</f>
         <v>1200</v>
       </c>
@@ -24057,18 +24007,18 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="226"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="236" t="s">
+      <c r="F7" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="237" t="s">
+      <c r="G7" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="240"/>
-      <c r="I7" s="239">
+      <c r="H7" s="190"/>
+      <c r="I7" s="189">
         <v>500</v>
       </c>
       <c r="J7" s="7"/>
@@ -24080,18 +24030,18 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="226"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="236" t="s">
+      <c r="F8" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="237" t="s">
+      <c r="G8" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="240"/>
-      <c r="I8" s="239"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="189"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -24101,18 +24051,18 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="226"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="236" t="s">
+      <c r="F9" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="237" t="s">
+      <c r="G9" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="240"/>
-      <c r="I9" s="238">
+      <c r="H9" s="190"/>
+      <c r="I9" s="188">
         <v>700</v>
       </c>
       <c r="J9" s="7"/>
@@ -24124,18 +24074,18 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="226"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="236" t="s">
+      <c r="F10" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="237" t="s">
+      <c r="G10" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="240"/>
-      <c r="I10" s="239">
+      <c r="H10" s="190"/>
+      <c r="I10" s="189">
         <f>I5-I9*2-I11</f>
         <v>700</v>
       </c>
@@ -24148,18 +24098,18 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="226"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="236" t="s">
+      <c r="F11" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="237" t="s">
+      <c r="G11" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="240"/>
-      <c r="I11" s="239">
+      <c r="H11" s="190"/>
+      <c r="I11" s="189">
         <v>500</v>
       </c>
       <c r="J11" s="7"/>
@@ -24171,18 +24121,18 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="226"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="236" t="s">
+      <c r="F12" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="237" t="s">
+      <c r="G12" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="240"/>
-      <c r="I12" s="239"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="189"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -24192,18 +24142,18 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="226"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="236" t="s">
+      <c r="F13" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="237" t="s">
+      <c r="G13" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="240"/>
-      <c r="I13" s="238">
+      <c r="H13" s="190"/>
+      <c r="I13" s="188">
         <v>50</v>
       </c>
       <c r="J13" s="7"/>
@@ -24215,18 +24165,18 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="226"/>
+      <c r="B14" s="178"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="241" t="s">
+      <c r="F14" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="237" t="s">
+      <c r="G14" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="242"/>
-      <c r="I14" s="243">
+      <c r="H14" s="192"/>
+      <c r="I14" s="193">
         <f>H4*H5/1000000</f>
         <v>4.8600000000000003</v>
       </c>
@@ -24239,18 +24189,18 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="226"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="241" t="s">
+      <c r="F15" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="237" t="s">
+      <c r="G15" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="242"/>
-      <c r="I15" s="244">
+      <c r="H15" s="192"/>
+      <c r="I15" s="194">
         <f>(H5+H4)*2/1000</f>
         <v>9</v>
       </c>
@@ -24265,10 +24215,10 @@
       <c r="A16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="211" t="s">
+      <c r="B16" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="211" t="s">
+      <c r="C16" s="165" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -24312,10 +24262,10 @@
       <c r="A17" s="162">
         <v>1</v>
       </c>
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="210" t="s">
+      <c r="C17" s="164" t="s">
         <v>251</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -24355,7 +24305,7 @@
       <c r="A18" s="162">
         <v>2</v>
       </c>
-      <c r="B18" s="208"/>
+      <c r="B18" s="256"/>
       <c r="C18" s="20" t="s">
         <v>251</v>
       </c>
@@ -24396,7 +24346,7 @@
       <c r="A19" s="162">
         <v>3</v>
       </c>
-      <c r="B19" s="208"/>
+      <c r="B19" s="256"/>
       <c r="C19" s="20"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -24415,7 +24365,7 @@
       <c r="A20" s="162">
         <v>4</v>
       </c>
-      <c r="B20" s="209"/>
+      <c r="B20" s="257"/>
       <c r="C20" s="20"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -24434,7 +24384,7 @@
       <c r="A21" s="162">
         <v>5</v>
       </c>
-      <c r="B21" s="222" t="s">
+      <c r="B21" s="258" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="20" t="s">
@@ -24477,7 +24427,7 @@
       <c r="A22" s="162">
         <v>6</v>
       </c>
-      <c r="B22" s="208"/>
+      <c r="B22" s="256"/>
       <c r="C22" s="20" t="s">
         <v>255</v>
       </c>
@@ -24518,7 +24468,7 @@
       <c r="A23" s="162">
         <v>7</v>
       </c>
-      <c r="B23" s="208"/>
+      <c r="B23" s="256"/>
       <c r="C23" s="20" t="s">
         <v>255</v>
       </c>
@@ -24559,7 +24509,7 @@
       <c r="A24" s="162">
         <v>8</v>
       </c>
-      <c r="B24" s="208"/>
+      <c r="B24" s="256"/>
       <c r="C24" s="20" t="s">
         <v>257</v>
       </c>
@@ -24600,7 +24550,7 @@
       <c r="A25" s="162">
         <v>9</v>
       </c>
-      <c r="B25" s="208"/>
+      <c r="B25" s="256"/>
       <c r="C25" s="20" t="s">
         <v>257</v>
       </c>
@@ -24641,7 +24591,7 @@
       <c r="A26" s="162">
         <v>10</v>
       </c>
-      <c r="B26" s="208"/>
+      <c r="B26" s="256"/>
       <c r="C26" s="20" t="s">
         <v>257</v>
       </c>
@@ -24682,7 +24632,7 @@
       <c r="A27" s="162">
         <v>11</v>
       </c>
-      <c r="B27" s="208"/>
+      <c r="B27" s="256"/>
       <c r="C27" s="20" t="s">
         <v>259</v>
       </c>
@@ -24723,7 +24673,7 @@
       <c r="A28" s="162">
         <v>12</v>
       </c>
-      <c r="B28" s="208"/>
+      <c r="B28" s="256"/>
       <c r="C28" s="20" t="s">
         <v>259</v>
       </c>
@@ -24764,7 +24714,7 @@
       <c r="A29" s="162">
         <v>13</v>
       </c>
-      <c r="B29" s="209"/>
+      <c r="B29" s="257"/>
       <c r="C29" s="20" t="s">
         <v>259</v>
       </c>
@@ -24846,7 +24796,7 @@
       <c r="A31" s="162">
         <v>15</v>
       </c>
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="258" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="20" t="s">
@@ -24889,253 +24839,253 @@
       <c r="A32" s="162">
         <v>16</v>
       </c>
-      <c r="B32" s="208"/>
-      <c r="C32" s="213" t="s">
+      <c r="B32" s="256"/>
+      <c r="C32" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="214" t="s">
+      <c r="D32" s="168" t="s">
         <v>252</v>
       </c>
-      <c r="E32" s="214" t="s">
+      <c r="E32" s="168" t="s">
         <v>262</v>
       </c>
-      <c r="F32" s="215">
+      <c r="F32" s="169">
         <v>469</v>
       </c>
-      <c r="G32" s="214">
+      <c r="G32" s="168">
         <v>4</v>
       </c>
-      <c r="H32" s="213">
+      <c r="H32" s="167">
         <v>0.214</v>
       </c>
-      <c r="I32" s="215">
+      <c r="I32" s="169">
         <v>0.40146399999999999</v>
       </c>
-      <c r="J32" s="216">
+      <c r="J32" s="170">
         <v>0</v>
       </c>
-      <c r="K32" s="215">
+      <c r="K32" s="169">
         <v>0</v>
       </c>
-      <c r="L32" s="217">
+      <c r="L32" s="171">
         <v>0.125</v>
       </c>
-      <c r="M32" s="217" t="s">
+      <c r="M32" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="N32" s="218"/>
+      <c r="N32" s="172"/>
       <c r="O32" s="23"/>
     </row>
     <row r="33" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A33" s="162">
         <v>17</v>
       </c>
-      <c r="B33" s="208"/>
-      <c r="C33" s="213" t="s">
+      <c r="B33" s="256"/>
+      <c r="C33" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="214" t="s">
+      <c r="D33" s="168" t="s">
         <v>252</v>
       </c>
-      <c r="E33" s="214" t="s">
+      <c r="E33" s="168" t="s">
         <v>262</v>
       </c>
-      <c r="F33" s="215">
+      <c r="F33" s="169">
         <v>1654</v>
       </c>
-      <c r="G33" s="214">
+      <c r="G33" s="168">
         <v>4</v>
       </c>
-      <c r="H33" s="213">
+      <c r="H33" s="167">
         <v>0.214</v>
       </c>
-      <c r="I33" s="215">
+      <c r="I33" s="169">
         <v>1.415824</v>
       </c>
-      <c r="J33" s="216">
+      <c r="J33" s="170">
         <v>0</v>
       </c>
-      <c r="K33" s="215">
+      <c r="K33" s="169">
         <v>0</v>
       </c>
-      <c r="L33" s="217">
+      <c r="L33" s="171">
         <v>0.125</v>
       </c>
-      <c r="M33" s="217" t="s">
+      <c r="M33" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="N33" s="218"/>
+      <c r="N33" s="172"/>
       <c r="O33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="162">
         <v>18</v>
       </c>
-      <c r="B34" s="208"/>
-      <c r="C34" s="213" t="s">
+      <c r="B34" s="256"/>
+      <c r="C34" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="214" t="s">
+      <c r="D34" s="168" t="s">
         <v>254</v>
       </c>
-      <c r="E34" s="214" t="s">
+      <c r="E34" s="168" t="s">
         <v>262</v>
       </c>
-      <c r="F34" s="215">
+      <c r="F34" s="169">
         <v>515.20000000000005</v>
       </c>
-      <c r="G34" s="214">
+      <c r="G34" s="168">
         <v>2</v>
       </c>
-      <c r="H34" s="213">
+      <c r="H34" s="167">
         <v>0.214</v>
       </c>
-      <c r="I34" s="215">
+      <c r="I34" s="169">
         <v>0.22050560000000002</v>
       </c>
-      <c r="J34" s="216">
+      <c r="J34" s="170">
         <v>0</v>
       </c>
-      <c r="K34" s="215">
+      <c r="K34" s="169">
         <v>0</v>
       </c>
-      <c r="L34" s="217">
+      <c r="L34" s="171">
         <v>0.125</v>
       </c>
-      <c r="M34" s="217" t="s">
+      <c r="M34" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="N34" s="218"/>
+      <c r="N34" s="172"/>
       <c r="O34" s="23"/>
     </row>
     <row r="35" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" s="162">
         <v>19</v>
       </c>
-      <c r="B35" s="208"/>
-      <c r="C35" s="213" t="s">
+      <c r="B35" s="256"/>
+      <c r="C35" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="214" t="s">
+      <c r="D35" s="168" t="s">
         <v>254</v>
       </c>
-      <c r="E35" s="214" t="s">
+      <c r="E35" s="168" t="s">
         <v>262</v>
       </c>
-      <c r="F35" s="215">
+      <c r="F35" s="169">
         <v>460.20000000000005</v>
       </c>
-      <c r="G35" s="214">
+      <c r="G35" s="168">
         <v>2</v>
       </c>
-      <c r="H35" s="213">
+      <c r="H35" s="167">
         <v>0.214</v>
       </c>
-      <c r="I35" s="215">
+      <c r="I35" s="169">
         <v>0.19696560000000002</v>
       </c>
-      <c r="J35" s="216">
+      <c r="J35" s="170">
         <v>0</v>
       </c>
-      <c r="K35" s="215">
+      <c r="K35" s="169">
         <v>0</v>
       </c>
-      <c r="L35" s="217">
+      <c r="L35" s="171">
         <v>0.125</v>
       </c>
-      <c r="M35" s="217" t="s">
+      <c r="M35" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="N35" s="218"/>
+      <c r="N35" s="172"/>
       <c r="O35" s="23"/>
     </row>
     <row r="36" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" s="162">
         <v>20</v>
       </c>
-      <c r="B36" s="208"/>
-      <c r="C36" s="213" t="s">
+      <c r="B36" s="256"/>
+      <c r="C36" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="214" t="s">
+      <c r="D36" s="168" t="s">
         <v>254</v>
       </c>
-      <c r="E36" s="214" t="s">
+      <c r="E36" s="168" t="s">
         <v>262</v>
       </c>
-      <c r="F36" s="215">
+      <c r="F36" s="169">
         <v>669</v>
       </c>
-      <c r="G36" s="214">
+      <c r="G36" s="168">
         <v>2</v>
       </c>
-      <c r="H36" s="213">
+      <c r="H36" s="167">
         <v>0.214</v>
       </c>
-      <c r="I36" s="215">
+      <c r="I36" s="169">
         <v>0.28633199999999998</v>
       </c>
-      <c r="J36" s="216">
+      <c r="J36" s="170">
         <v>0</v>
       </c>
-      <c r="K36" s="215">
+      <c r="K36" s="169">
         <v>0</v>
       </c>
-      <c r="L36" s="217">
+      <c r="L36" s="171">
         <v>0.125</v>
       </c>
-      <c r="M36" s="217" t="s">
+      <c r="M36" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="N36" s="218"/>
+      <c r="N36" s="172"/>
       <c r="O36" s="23"/>
     </row>
     <row r="37" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" s="162">
         <v>21</v>
       </c>
-      <c r="B37" s="208"/>
-      <c r="C37" s="213" t="s">
+      <c r="B37" s="256"/>
+      <c r="C37" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="214" t="s">
+      <c r="D37" s="168" t="s">
         <v>254</v>
       </c>
-      <c r="E37" s="214" t="s">
+      <c r="E37" s="168" t="s">
         <v>262</v>
       </c>
-      <c r="F37" s="215">
+      <c r="F37" s="169">
         <v>614</v>
       </c>
-      <c r="G37" s="214">
+      <c r="G37" s="168">
         <v>2</v>
       </c>
-      <c r="H37" s="213">
+      <c r="H37" s="167">
         <v>0.214</v>
       </c>
-      <c r="I37" s="215">
+      <c r="I37" s="169">
         <v>0.26279199999999997</v>
       </c>
-      <c r="J37" s="216">
+      <c r="J37" s="170">
         <v>0</v>
       </c>
-      <c r="K37" s="215">
+      <c r="K37" s="169">
         <v>0</v>
       </c>
-      <c r="L37" s="217">
+      <c r="L37" s="171">
         <v>0.125</v>
       </c>
-      <c r="M37" s="217" t="s">
+      <c r="M37" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="N37" s="218"/>
+      <c r="N37" s="172"/>
       <c r="O37" s="23"/>
     </row>
     <row r="38" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="162">
         <v>22</v>
       </c>
-      <c r="B38" s="208"/>
+      <c r="B38" s="256"/>
       <c r="C38" s="20" t="s">
         <v>40</v>
       </c>
@@ -25176,7 +25126,7 @@
       <c r="A39" s="162">
         <v>23</v>
       </c>
-      <c r="B39" s="208"/>
+      <c r="B39" s="256"/>
       <c r="C39" s="20" t="s">
         <v>40</v>
       </c>
@@ -25217,7 +25167,7 @@
       <c r="A40" s="162">
         <v>24</v>
       </c>
-      <c r="B40" s="208"/>
+      <c r="B40" s="256"/>
       <c r="C40" s="20" t="s">
         <v>263</v>
       </c>
@@ -25258,7 +25208,7 @@
       <c r="A41" s="162">
         <v>25</v>
       </c>
-      <c r="B41" s="208"/>
+      <c r="B41" s="256"/>
       <c r="C41" s="20" t="s">
         <v>263</v>
       </c>
@@ -25299,7 +25249,7 @@
       <c r="A42" s="162">
         <v>26</v>
       </c>
-      <c r="B42" s="208"/>
+      <c r="B42" s="256"/>
       <c r="C42" s="20" t="s">
         <v>268</v>
       </c>
@@ -25338,7 +25288,7 @@
       <c r="A43" s="162">
         <v>27</v>
       </c>
-      <c r="B43" s="209"/>
+      <c r="B43" s="257"/>
       <c r="C43" s="20" t="s">
         <v>268</v>
       </c>
@@ -25374,16 +25324,16 @@
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="204" t="s">
+      <c r="A44" s="249" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="204"/>
-      <c r="C44" s="204"/>
-      <c r="D44" s="204"/>
-      <c r="E44" s="204"/>
-      <c r="F44" s="204"/>
-      <c r="G44" s="204"/>
-      <c r="H44" s="204"/>
+      <c r="B44" s="249"/>
+      <c r="C44" s="249"/>
+      <c r="D44" s="249"/>
+      <c r="E44" s="249"/>
+      <c r="F44" s="249"/>
+      <c r="G44" s="249"/>
+      <c r="H44" s="249"/>
       <c r="I44" s="19">
         <v>32.526087799999992</v>
       </c>
@@ -25395,16 +25345,16 @@
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="204" t="s">
+      <c r="A45" s="249" t="s">
         <v>187</v>
       </c>
-      <c r="B45" s="204"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="204"/>
-      <c r="F45" s="204"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="204"/>
+      <c r="B45" s="249"/>
+      <c r="C45" s="249"/>
+      <c r="D45" s="249"/>
+      <c r="E45" s="249"/>
+      <c r="F45" s="249"/>
+      <c r="G45" s="249"/>
+      <c r="H45" s="249"/>
       <c r="I45" s="19">
         <v>4.1164183999999997</v>
       </c>
@@ -25416,16 +25366,16 @@
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="204" t="s">
+      <c r="A46" s="249" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="204"/>
-      <c r="C46" s="204"/>
-      <c r="D46" s="204"/>
-      <c r="E46" s="204"/>
-      <c r="F46" s="204"/>
-      <c r="G46" s="204"/>
-      <c r="H46" s="204"/>
+      <c r="B46" s="249"/>
+      <c r="C46" s="249"/>
+      <c r="D46" s="249"/>
+      <c r="E46" s="249"/>
+      <c r="F46" s="249"/>
+      <c r="G46" s="249"/>
+      <c r="H46" s="249"/>
       <c r="I46" s="19">
         <v>1.2172248000000001</v>
       </c>
@@ -25439,14 +25389,14 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="157"/>
-      <c r="C47" s="196" t="s">
+      <c r="C47" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="201"/>
-      <c r="E47" s="201"/>
-      <c r="F47" s="201"/>
-      <c r="G47" s="201"/>
-      <c r="H47" s="197"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="237"/>
+      <c r="F47" s="237"/>
+      <c r="G47" s="237"/>
+      <c r="H47" s="233"/>
       <c r="I47" s="32">
         <f>SUM(I44:I46)</f>
         <v>37.859730999999989</v>
@@ -25456,8 +25406,8 @@
         <f>SUM(K17:K43)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="228"/>
-      <c r="M47" s="229"/>
+      <c r="L47" s="180"/>
+      <c r="M47" s="181"/>
       <c r="N47" s="34"/>
       <c r="O47" s="34"/>
     </row>
@@ -25466,10 +25416,10 @@
       <c r="B48" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="205" t="s">
+      <c r="C48" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="206"/>
+      <c r="D48" s="241"/>
       <c r="E48" s="36" t="s">
         <v>44</v>
       </c>
@@ -25493,37 +25443,37 @@
         <v>35</v>
       </c>
       <c r="M48" s="38"/>
-      <c r="N48" s="227"/>
+      <c r="N48" s="179"/>
       <c r="O48" s="37"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="162">
         <v>1</v>
       </c>
-      <c r="B49" s="231" t="s">
+      <c r="B49" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="232" t="s">
+      <c r="C49" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="233"/>
-      <c r="E49" s="219">
+      <c r="D49" s="248"/>
+      <c r="E49" s="173">
         <v>495.2</v>
       </c>
-      <c r="F49" s="220">
+      <c r="F49" s="174">
         <v>995.2</v>
       </c>
-      <c r="G49" s="234">
+      <c r="G49" s="184">
         <v>1</v>
       </c>
-      <c r="H49" s="234"/>
-      <c r="I49" s="220">
+      <c r="H49" s="184"/>
+      <c r="I49" s="174">
         <v>0.49282304000000005</v>
       </c>
-      <c r="J49" s="220"/>
-      <c r="K49" s="220"/>
-      <c r="L49" s="230"/>
-      <c r="M49" s="230"/>
+      <c r="J49" s="174"/>
+      <c r="K49" s="174"/>
+      <c r="L49" s="182"/>
+      <c r="M49" s="182"/>
       <c r="N49" s="41"/>
       <c r="O49" s="41"/>
     </row>
@@ -25531,28 +25481,28 @@
       <c r="A50" s="162">
         <v>2</v>
       </c>
-      <c r="B50" s="231" t="s">
+      <c r="B50" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="232" t="s">
+      <c r="C50" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="233"/>
-      <c r="E50" s="219">
+      <c r="D50" s="248"/>
+      <c r="E50" s="173">
         <v>440.2</v>
       </c>
-      <c r="F50" s="220">
+      <c r="F50" s="174">
         <v>995.2</v>
       </c>
-      <c r="G50" s="234">
+      <c r="G50" s="184">
         <v>1</v>
       </c>
-      <c r="H50" s="234"/>
-      <c r="I50" s="220">
+      <c r="H50" s="184"/>
+      <c r="I50" s="174">
         <v>0.43808704000000004</v>
       </c>
-      <c r="J50" s="220"/>
-      <c r="K50" s="220"/>
+      <c r="J50" s="174"/>
+      <c r="K50" s="174"/>
       <c r="L50" s="40"/>
       <c r="M50" s="121"/>
       <c r="N50" s="41"/>
@@ -25562,28 +25512,28 @@
       <c r="A51" s="162">
         <v>3</v>
       </c>
-      <c r="B51" s="231" t="s">
+      <c r="B51" s="183" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="232" t="s">
+      <c r="C51" s="247" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="233"/>
-      <c r="E51" s="219">
+      <c r="D51" s="248"/>
+      <c r="E51" s="173">
         <v>647</v>
       </c>
-      <c r="F51" s="220">
+      <c r="F51" s="174">
         <v>447</v>
       </c>
-      <c r="G51" s="234">
+      <c r="G51" s="184">
         <v>1</v>
       </c>
-      <c r="H51" s="234"/>
-      <c r="I51" s="220">
+      <c r="H51" s="184"/>
+      <c r="I51" s="174">
         <v>0.28920899999999999</v>
       </c>
-      <c r="J51" s="220"/>
-      <c r="K51" s="220"/>
+      <c r="J51" s="174"/>
+      <c r="K51" s="174"/>
       <c r="L51" s="21"/>
       <c r="M51" s="119"/>
       <c r="N51" s="42"/>
@@ -25593,28 +25543,28 @@
       <c r="A52" s="162">
         <v>4</v>
       </c>
-      <c r="B52" s="231" t="s">
+      <c r="B52" s="183" t="s">
         <v>183</v>
       </c>
-      <c r="C52" s="232" t="s">
+      <c r="C52" s="247" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="233"/>
-      <c r="E52" s="219">
+      <c r="D52" s="248"/>
+      <c r="E52" s="173">
         <v>592</v>
       </c>
-      <c r="F52" s="220">
+      <c r="F52" s="174">
         <v>447</v>
       </c>
-      <c r="G52" s="234">
+      <c r="G52" s="184">
         <v>1</v>
       </c>
-      <c r="H52" s="234"/>
-      <c r="I52" s="220">
+      <c r="H52" s="184"/>
+      <c r="I52" s="174">
         <v>0.26462400000000003</v>
       </c>
-      <c r="J52" s="220"/>
-      <c r="K52" s="220"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="174"/>
       <c r="L52" s="29"/>
       <c r="M52" s="126"/>
       <c r="N52" s="60"/>
@@ -25624,28 +25574,28 @@
       <c r="A53" s="162">
         <v>5</v>
       </c>
-      <c r="B53" s="231" t="s">
+      <c r="B53" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="232" t="s">
+      <c r="C53" s="247" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="233"/>
-      <c r="E53" s="219">
+      <c r="D53" s="248"/>
+      <c r="E53" s="173">
         <v>664</v>
       </c>
-      <c r="F53" s="219">
+      <c r="F53" s="173">
         <v>1630</v>
       </c>
-      <c r="G53" s="219">
+      <c r="G53" s="173">
         <v>1</v>
       </c>
-      <c r="H53" s="219"/>
-      <c r="I53" s="220">
+      <c r="H53" s="173"/>
+      <c r="I53" s="174">
         <v>1.0823199999999999</v>
       </c>
-      <c r="J53" s="220"/>
-      <c r="K53" s="220"/>
+      <c r="J53" s="174"/>
+      <c r="K53" s="174"/>
       <c r="L53" s="153"/>
       <c r="M53" s="126"/>
       <c r="N53" s="60"/>
@@ -25655,28 +25605,28 @@
       <c r="A54" s="162">
         <v>6</v>
       </c>
-      <c r="B54" s="231" t="s">
+      <c r="B54" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="232" t="s">
+      <c r="C54" s="247" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="233"/>
-      <c r="E54" s="219">
+      <c r="D54" s="248"/>
+      <c r="E54" s="173">
         <v>375</v>
       </c>
-      <c r="F54" s="220">
+      <c r="F54" s="174">
         <v>1630</v>
       </c>
-      <c r="G54" s="235">
+      <c r="G54" s="185">
         <v>1</v>
       </c>
-      <c r="H54" s="235"/>
-      <c r="I54" s="220">
+      <c r="H54" s="185"/>
+      <c r="I54" s="174">
         <v>0.61124999999999996</v>
       </c>
-      <c r="J54" s="220"/>
-      <c r="K54" s="220"/>
+      <c r="J54" s="174"/>
+      <c r="K54" s="174"/>
       <c r="L54" s="153"/>
       <c r="M54" s="126"/>
       <c r="N54" s="60"/>
@@ -25685,14 +25635,14 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="157"/>
-      <c r="C55" s="198" t="s">
+      <c r="C55" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="198"/>
-      <c r="E55" s="198"/>
-      <c r="F55" s="207"/>
-      <c r="G55" s="207"/>
-      <c r="H55" s="198"/>
+      <c r="D55" s="234"/>
+      <c r="E55" s="234"/>
+      <c r="F55" s="246"/>
+      <c r="G55" s="246"/>
+      <c r="H55" s="234"/>
       <c r="I55" s="32">
         <f>SUM(I49:I54)</f>
         <v>3.1783130800000001</v>
@@ -25714,10 +25664,10 @@
       <c r="B56" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="205" t="s">
+      <c r="C56" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="206"/>
+      <c r="D56" s="241"/>
       <c r="E56" s="36" t="s">
         <v>52</v>
       </c>
@@ -25751,12 +25701,12 @@
         <v>1</v>
       </c>
       <c r="B57" s="160"/>
-      <c r="C57" s="245" t="s">
+      <c r="C57" s="244" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="246"/>
-      <c r="E57" s="247"/>
-      <c r="F57" s="247"/>
+      <c r="D57" s="245"/>
+      <c r="E57" s="195"/>
+      <c r="F57" s="195"/>
       <c r="G57" s="19" t="s">
         <v>271</v>
       </c>
@@ -25778,14 +25728,14 @@
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="157"/>
-      <c r="C58" s="198" t="s">
+      <c r="C58" s="234" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="198"/>
-      <c r="E58" s="198"/>
-      <c r="F58" s="207"/>
-      <c r="G58" s="207"/>
-      <c r="H58" s="198"/>
+      <c r="D58" s="234"/>
+      <c r="E58" s="234"/>
+      <c r="F58" s="246"/>
+      <c r="G58" s="246"/>
+      <c r="H58" s="234"/>
       <c r="I58" s="32">
         <f>I57</f>
         <v>2</v>
@@ -25807,10 +25757,10 @@
       <c r="B59" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="205" t="s">
+      <c r="C59" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="206"/>
+      <c r="D59" s="241"/>
       <c r="E59" s="36" t="s">
         <v>52</v>
       </c>
@@ -25844,10 +25794,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="160"/>
-      <c r="C60" s="202" t="s">
+      <c r="C60" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="203"/>
+      <c r="D60" s="239"/>
       <c r="E60" s="46"/>
       <c r="F60" s="45"/>
       <c r="G60" s="19" t="s">
@@ -25873,10 +25823,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="160"/>
-      <c r="C61" s="202" t="s">
+      <c r="C61" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="203"/>
+      <c r="D61" s="239"/>
       <c r="E61" s="46" t="s">
         <v>59</v>
       </c>
@@ -25904,10 +25854,10 @@
         <v>3</v>
       </c>
       <c r="B62" s="160"/>
-      <c r="C62" s="202" t="s">
+      <c r="C62" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="203"/>
+      <c r="D62" s="239"/>
       <c r="E62" s="46" t="s">
         <v>61</v>
       </c>
@@ -25935,10 +25885,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="160"/>
-      <c r="C63" s="202" t="s">
+      <c r="C63" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="203"/>
+      <c r="D63" s="239"/>
       <c r="E63" s="46" t="s">
         <v>62</v>
       </c>
@@ -25966,10 +25916,10 @@
         <v>5</v>
       </c>
       <c r="B64" s="160"/>
-      <c r="C64" s="202" t="s">
+      <c r="C64" s="238" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="203"/>
+      <c r="D64" s="239"/>
       <c r="E64" s="46"/>
       <c r="F64" s="45"/>
       <c r="G64" s="19" t="s">
@@ -25995,10 +25945,10 @@
         <v>6</v>
       </c>
       <c r="B65" s="160"/>
-      <c r="C65" s="202" t="s">
+      <c r="C65" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="D65" s="203"/>
+      <c r="D65" s="239"/>
       <c r="E65" s="46"/>
       <c r="F65" s="45"/>
       <c r="G65" s="19" t="s">
@@ -26024,10 +25974,10 @@
         <v>7</v>
       </c>
       <c r="B66" s="160"/>
-      <c r="C66" s="202" t="s">
+      <c r="C66" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="203"/>
+      <c r="D66" s="239"/>
       <c r="E66" s="46"/>
       <c r="F66" s="45"/>
       <c r="G66" s="19" t="s">
@@ -26053,10 +26003,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="160"/>
-      <c r="C67" s="202" t="s">
+      <c r="C67" s="238" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="203"/>
+      <c r="D67" s="239"/>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
       <c r="G67" s="19"/>
@@ -26074,11 +26024,11 @@
         <v>9</v>
       </c>
       <c r="B68" s="160"/>
-      <c r="C68" s="202"/>
-      <c r="D68" s="203"/>
+      <c r="C68" s="238"/>
+      <c r="D68" s="239"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
-      <c r="G68" s="247"/>
+      <c r="G68" s="195"/>
       <c r="H68" s="41"/>
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
@@ -26091,14 +26041,14 @@
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="43"/>
       <c r="B69" s="157"/>
-      <c r="C69" s="196" t="s">
+      <c r="C69" s="232" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="201"/>
-      <c r="E69" s="201"/>
-      <c r="F69" s="201"/>
-      <c r="G69" s="201"/>
-      <c r="H69" s="201"/>
+      <c r="D69" s="237"/>
+      <c r="E69" s="237"/>
+      <c r="F69" s="237"/>
+      <c r="G69" s="237"/>
+      <c r="H69" s="237"/>
       <c r="I69" s="31"/>
       <c r="J69" s="31"/>
       <c r="K69" s="32">
@@ -26115,16 +26065,16 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="157"/>
-      <c r="C70" s="196" t="s">
+      <c r="C70" s="232" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="201"/>
-      <c r="E70" s="201"/>
-      <c r="F70" s="201"/>
-      <c r="G70" s="201"/>
-      <c r="H70" s="201"/>
-      <c r="I70" s="201"/>
-      <c r="J70" s="197"/>
+      <c r="D70" s="237"/>
+      <c r="E70" s="237"/>
+      <c r="F70" s="237"/>
+      <c r="G70" s="237"/>
+      <c r="H70" s="237"/>
+      <c r="I70" s="237"/>
+      <c r="J70" s="233"/>
       <c r="K70" s="32">
         <f>K69+K58+K55+K47</f>
         <v>0</v>
@@ -26141,10 +26091,10 @@
       <c r="B71" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="205" t="s">
+      <c r="C71" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="206"/>
+      <c r="D71" s="241"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
       <c r="G71" s="36" t="s">
@@ -26174,10 +26124,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="160"/>
-      <c r="C72" s="191" t="s">
+      <c r="C72" s="242" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="192"/>
+      <c r="D72" s="243"/>
       <c r="E72" s="18"/>
       <c r="F72" s="19"/>
       <c r="G72" s="18" t="s">
@@ -26203,10 +26153,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="160"/>
-      <c r="C73" s="191" t="s">
+      <c r="C73" s="242" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="192"/>
+      <c r="D73" s="243"/>
       <c r="E73" s="18"/>
       <c r="F73" s="19"/>
       <c r="G73" s="18" t="s">
@@ -26230,17 +26180,17 @@
     <row r="74" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
       <c r="B74" s="157"/>
-      <c r="C74" s="196" t="s">
+      <c r="C74" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="D74" s="197"/>
+      <c r="D74" s="233"/>
       <c r="E74" s="157"/>
-      <c r="F74" s="198" t="s">
+      <c r="F74" s="234" t="s">
         <v>73</v>
       </c>
-      <c r="G74" s="198"/>
-      <c r="H74" s="198"/>
-      <c r="I74" s="198"/>
+      <c r="G74" s="234"/>
+      <c r="H74" s="234"/>
+      <c r="I74" s="234"/>
       <c r="J74" s="54"/>
       <c r="K74" s="32"/>
       <c r="L74" s="33" t="s">
@@ -26253,17 +26203,17 @@
     <row r="75" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="157"/>
-      <c r="C75" s="199" t="s">
+      <c r="C75" s="235" t="s">
         <v>74</v>
       </c>
-      <c r="D75" s="200"/>
+      <c r="D75" s="236"/>
       <c r="E75" s="158"/>
-      <c r="F75" s="196" t="s">
+      <c r="F75" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="201"/>
-      <c r="H75" s="201"/>
-      <c r="I75" s="201"/>
+      <c r="G75" s="237"/>
+      <c r="H75" s="237"/>
+      <c r="I75" s="237"/>
       <c r="J75" s="32"/>
       <c r="K75" s="32"/>
       <c r="L75" s="55" t="s">
@@ -26275,17 +26225,35 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B31:B43"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:H58"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="F74:I74"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="F75:I75"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B31:B43"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
@@ -26297,24 +26265,6 @@
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Support/Sunac2019/LocalMode/门窗算量表格.xlsx
+++ b/Support/Sunac2019/LocalMode/门窗算量表格.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Autodesk\AutoCAD 2014\Support\Sunac2019\LocalMode\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B95D307-2623-4764-AB63-7EA9ADEA9424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
@@ -18,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">汇总表!$A$1:$AU$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">算量表!$A$1:$O$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">算量表!$A$1:$O$76</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -626,7 +620,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -867,7 +861,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1221,6 +1215,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1241,7 +1259,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1837,6 +1855,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1992,13 +2028,13 @@
   <cellStyles count="9">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 11" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 12" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 2_成本" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 4 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 4 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 4 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规_参考工程量清单" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 11" xfId="6"/>
+    <cellStyle name="常规 12" xfId="2"/>
+    <cellStyle name="常规 2_成本" xfId="8"/>
+    <cellStyle name="常规 4 2 3" xfId="5"/>
+    <cellStyle name="常规 4 2 4" xfId="4"/>
+    <cellStyle name="常规 4 4" xfId="3"/>
+    <cellStyle name="常规_参考工程量清单" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2024,7 +2060,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>594299</xdr:colOff>
+      <xdr:colOff>492699</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2033,7 +2069,7 @@
         <xdr:cNvPr id="2" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056E7DFC-97A2-4F8C-B5B3-937E2AEB8354}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056E7DFC-97A2-4F8C-B5B3-937E2AEB8354}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2134,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>594299</xdr:colOff>
+      <xdr:colOff>492699</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2107,7 +2143,7 @@
         <xdr:cNvPr id="3" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD545937-26AF-44F5-8C43-9CDB08B04B54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD545937-26AF-44F5-8C43-9CDB08B04B54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2208,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>594299</xdr:colOff>
+      <xdr:colOff>492699</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2181,7 +2217,7 @@
         <xdr:cNvPr id="4" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BF13FE-3748-49F2-B74A-1D0F72FD2BDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BF13FE-3748-49F2-B74A-1D0F72FD2BDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2282,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>594299</xdr:colOff>
+      <xdr:colOff>492699</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2255,7 +2291,7 @@
         <xdr:cNvPr id="5" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761D93EA-30AB-48DC-A7BA-66B681F68C45}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761D93EA-30AB-48DC-A7BA-66B681F68C45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2356,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>594299</xdr:colOff>
+      <xdr:colOff>492699</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2329,7 +2365,7 @@
         <xdr:cNvPr id="6" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC01A1B9-18EE-4FA0-B56D-01C1EE688332}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC01A1B9-18EE-4FA0-B56D-01C1EE688332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2430,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>594299</xdr:colOff>
+      <xdr:colOff>492699</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2403,7 +2439,7 @@
         <xdr:cNvPr id="7" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A6AC8B-97B2-46CD-BE94-8046272215B3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A6AC8B-97B2-46CD-BE94-8046272215B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2508,7 @@
         <xdr:cNvPr id="8" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB00F07-9E1B-46F0-8BFF-C19A9DD07AB0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB00F07-9E1B-46F0-8BFF-C19A9DD07AB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2577,7 @@
         <xdr:cNvPr id="9" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0C04BA-8B46-42D8-9ED7-4DF306E9D54A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0C04BA-8B46-42D8-9ED7-4DF306E9D54A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2646,7 @@
         <xdr:cNvPr id="10" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6808311-41A6-43CB-BB6E-C2FE97B663C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6808311-41A6-43CB-BB6E-C2FE97B663C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2679,7 +2715,7 @@
         <xdr:cNvPr id="11" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA2051D-5461-4773-8950-0F0B4AAFE044}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA2051D-5461-4773-8950-0F0B4AAFE044}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2784,7 @@
         <xdr:cNvPr id="12" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1A0A58-131C-44C8-A326-C946A0627F22}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1A0A58-131C-44C8-A326-C946A0627F22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2817,7 +2853,7 @@
         <xdr:cNvPr id="13" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFE2D51-D747-4AAB-88BF-AE934141D045}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFE2D51-D747-4AAB-88BF-AE934141D045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2886,7 +2922,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D19AB3-E4EB-4213-9C92-BB021D5F5F03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D19AB3-E4EB-4213-9C92-BB021D5F5F03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2955,7 +2991,7 @@
         <xdr:cNvPr id="15" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39256756-6960-4E6C-8AAC-18DFAB8B67A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39256756-6960-4E6C-8AAC-18DFAB8B67A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3024,7 +3060,7 @@
         <xdr:cNvPr id="16" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F5BDCA-8E73-41F8-B754-B7E5F5044A0D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F5BDCA-8E73-41F8-B754-B7E5F5044A0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3093,7 +3129,7 @@
         <xdr:cNvPr id="17" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E191A14B-CBB7-4FAC-85D6-BDD8B7F16ABE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E191A14B-CBB7-4FAC-85D6-BDD8B7F16ABE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3198,7 @@
         <xdr:cNvPr id="18" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575DC458-C05A-4512-9A50-FDC25B47AE2F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575DC458-C05A-4512-9A50-FDC25B47AE2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3231,7 +3267,7 @@
         <xdr:cNvPr id="19" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B64ECB-6C38-4306-B420-D0F6CFED533F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B64ECB-6C38-4306-B420-D0F6CFED533F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3300,7 +3336,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71BE643-4AC7-48AB-95F2-FCD0E7575E30}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71BE643-4AC7-48AB-95F2-FCD0E7575E30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3405,7 @@
         <xdr:cNvPr id="21" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855D2040-4B93-4E04-A85C-E8FF44B82264}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855D2040-4B93-4E04-A85C-E8FF44B82264}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3438,7 +3474,7 @@
         <xdr:cNvPr id="22" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B35528-501C-4087-B60F-C4F4F231C11C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B35528-501C-4087-B60F-C4F4F231C11C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3543,7 @@
         <xdr:cNvPr id="23" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7BB651-822B-48C4-8DC6-E1179C8053FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7BB651-822B-48C4-8DC6-E1179C8053FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3576,7 +3612,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7101563A-0B63-4C7A-A901-FE12B33B3C78}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7101563A-0B63-4C7A-A901-FE12B33B3C78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3645,7 +3681,7 @@
         <xdr:cNvPr id="25" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE61DFA6-5608-4727-8AFC-166F134E8846}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE61DFA6-5608-4727-8AFC-166F134E8846}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3714,7 +3750,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C34900-73D0-4C93-BE33-C7B592551D00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C34900-73D0-4C93-BE33-C7B592551D00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3783,7 +3819,7 @@
         <xdr:cNvPr id="27" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99978E34-E19D-4B82-8BC3-C6561DF85A41}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99978E34-E19D-4B82-8BC3-C6561DF85A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3852,7 +3888,7 @@
         <xdr:cNvPr id="28" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C3B80C-FD7E-41C2-8741-B01CB9AA0E92}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C3B80C-FD7E-41C2-8741-B01CB9AA0E92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3921,7 +3957,7 @@
         <xdr:cNvPr id="29" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501554D4-DADC-406A-8B8E-822AF96391EC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501554D4-DADC-406A-8B8E-822AF96391EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3990,7 +4026,7 @@
         <xdr:cNvPr id="30" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E74EF0B-F9BF-42C8-9D88-498F4339C4DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E74EF0B-F9BF-42C8-9D88-498F4339C4DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4059,7 +4095,7 @@
         <xdr:cNvPr id="31" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496B920C-59E8-4050-AB99-6EAE080030C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496B920C-59E8-4050-AB99-6EAE080030C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4128,7 +4164,7 @@
         <xdr:cNvPr id="32" name="图片 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB9E06D-539F-4A1D-8C7D-278A47A860A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB9E06D-539F-4A1D-8C7D-278A47A860A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4197,7 +4233,7 @@
         <xdr:cNvPr id="33" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F68237-A6FF-4C08-9610-34B67C477BC5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F68237-A6FF-4C08-9610-34B67C477BC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4266,7 +4302,7 @@
         <xdr:cNvPr id="34" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156F006F-B9B9-4500-A55C-CB0933C92F3B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156F006F-B9B9-4500-A55C-CB0933C92F3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4335,7 +4371,7 @@
         <xdr:cNvPr id="35" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A5E84B-3C3B-4857-A07D-E7E5FFFDF1AD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A5E84B-3C3B-4857-A07D-E7E5FFFDF1AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4404,7 +4440,7 @@
         <xdr:cNvPr id="36" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3928AC-C880-4C34-A150-7BD49B2467B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3928AC-C880-4C34-A150-7BD49B2467B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4473,7 +4509,7 @@
         <xdr:cNvPr id="37" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E020AA60-9C40-440A-A630-D639CB5EEF35}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E020AA60-9C40-440A-A630-D639CB5EEF35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4542,7 +4578,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEBAC48-0CF0-40FA-B5AE-4B2292EEED22}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEBAC48-0CF0-40FA-B5AE-4B2292EEED22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4611,7 +4647,7 @@
         <xdr:cNvPr id="39" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFA4090-41B0-40E5-9C76-0F5DB9A5CD54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFA4090-41B0-40E5-9C76-0F5DB9A5CD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4680,7 +4716,7 @@
         <xdr:cNvPr id="40" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35992E37-FF99-4275-9EDE-1560B7131904}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35992E37-FF99-4275-9EDE-1560B7131904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4749,7 +4785,7 @@
         <xdr:cNvPr id="41" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362DAA56-7CC3-4AE3-A19C-9FA188771081}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362DAA56-7CC3-4AE3-A19C-9FA188771081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4818,7 +4854,7 @@
         <xdr:cNvPr id="42" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BE53FF-7A17-4ECF-A484-54B6166EC80C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BE53FF-7A17-4ECF-A484-54B6166EC80C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4887,7 +4923,7 @@
         <xdr:cNvPr id="43" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BBB3E9-D4FF-41B8-8F42-ACD76A4C96FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BBB3E9-D4FF-41B8-8F42-ACD76A4C96FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4956,7 +4992,7 @@
         <xdr:cNvPr id="44" name="图片 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1395F89D-7F82-45DB-A952-E3C2B40DE020}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1395F89D-7F82-45DB-A952-E3C2B40DE020}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5025,7 +5061,7 @@
         <xdr:cNvPr id="45" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E13BAD1-97BA-4D1C-BD7C-EF25538C57EB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E13BAD1-97BA-4D1C-BD7C-EF25538C57EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5094,7 +5130,7 @@
         <xdr:cNvPr id="46" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA94FD7-59CB-4D5B-8BA9-D128009181F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA94FD7-59CB-4D5B-8BA9-D128009181F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5163,7 +5199,7 @@
         <xdr:cNvPr id="47" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798DD307-BE34-4642-BCFC-970C6ADBED38}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798DD307-BE34-4642-BCFC-970C6ADBED38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5232,7 +5268,7 @@
         <xdr:cNvPr id="48" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66497E25-71E7-4565-978E-A46CDD901248}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66497E25-71E7-4565-978E-A46CDD901248}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5301,7 +5337,7 @@
         <xdr:cNvPr id="49" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C91032B-70F4-44CA-B3E1-0CBB714420F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C91032B-70F4-44CA-B3E1-0CBB714420F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5370,7 +5406,7 @@
         <xdr:cNvPr id="50" name="图片 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD3C97C-C63E-429F-8B65-E1CDB475E881}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD3C97C-C63E-429F-8B65-E1CDB475E881}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5439,7 +5475,7 @@
         <xdr:cNvPr id="51" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286E29B1-E328-48C8-AB02-B6267E92EA94}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286E29B1-E328-48C8-AB02-B6267E92EA94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5508,7 +5544,7 @@
         <xdr:cNvPr id="52" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B38B4F8-63D1-4C89-9615-D8D2B7DE09D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B38B4F8-63D1-4C89-9615-D8D2B7DE09D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5577,7 +5613,7 @@
         <xdr:cNvPr id="53" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22313ED8-50C2-4DED-AE65-74ABCCEC29DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22313ED8-50C2-4DED-AE65-74ABCCEC29DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5646,7 +5682,7 @@
         <xdr:cNvPr id="54" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EFBC15-F540-43D2-A941-C53A87F927DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EFBC15-F540-43D2-A941-C53A87F927DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5715,7 +5751,7 @@
         <xdr:cNvPr id="55" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2FCAA4-A1B8-4973-8BDC-11A174017F54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2FCAA4-A1B8-4973-8BDC-11A174017F54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5784,7 +5820,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8674E2-2C70-425F-8A0C-3F91138C2FA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8674E2-2C70-425F-8A0C-3F91138C2FA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5853,7 +5889,7 @@
         <xdr:cNvPr id="57" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8435591D-2160-4874-9E53-73A616EDF887}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8435591D-2160-4874-9E53-73A616EDF887}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5922,7 +5958,7 @@
         <xdr:cNvPr id="58" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5CBBB4-E4A6-4293-A274-E01FB0A9D47E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5CBBB4-E4A6-4293-A274-E01FB0A9D47E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5991,7 +6027,7 @@
         <xdr:cNvPr id="59" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D2A69F-0D21-4E9A-86D8-98BEE1EDD269}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D2A69F-0D21-4E9A-86D8-98BEE1EDD269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6060,7 +6096,7 @@
         <xdr:cNvPr id="60" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAC6AF2-2379-4640-BEF8-9E9C8DB25EDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAC6AF2-2379-4640-BEF8-9E9C8DB25EDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6129,7 +6165,7 @@
         <xdr:cNvPr id="61" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1344DBA-C1C2-4FB6-91AF-8F68BEAE9702}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1344DBA-C1C2-4FB6-91AF-8F68BEAE9702}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6198,7 +6234,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88F561C-EDF9-4B16-A9EB-EEFE0E7D93E3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88F561C-EDF9-4B16-A9EB-EEFE0E7D93E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6267,7 +6303,7 @@
         <xdr:cNvPr id="63" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08D3B99-FAD7-442B-B31F-4AC5856BF07A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08D3B99-FAD7-442B-B31F-4AC5856BF07A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6336,7 +6372,7 @@
         <xdr:cNvPr id="64" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B637411-37B1-450C-9E91-4FE42205B744}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B637411-37B1-450C-9E91-4FE42205B744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6405,7 +6441,7 @@
         <xdr:cNvPr id="65" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFED5A5C-CF94-481E-BDCE-27327C408EE7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFED5A5C-CF94-481E-BDCE-27327C408EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6474,7 +6510,7 @@
         <xdr:cNvPr id="66" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE5D975-1ECF-4429-AC68-B325B6ADE30C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE5D975-1ECF-4429-AC68-B325B6ADE30C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6543,7 +6579,7 @@
         <xdr:cNvPr id="67" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D2BDD1-F169-4C22-A5DF-3364B979ED73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D2BDD1-F169-4C22-A5DF-3364B979ED73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6603,7 +6639,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -6612,7 +6648,7 @@
         <xdr:cNvPr id="68" name="图片 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5998AC-CBBC-49C7-8A28-84FE39E0D327}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5998AC-CBBC-49C7-8A28-84FE39E0D327}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6672,7 +6708,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -6681,7 +6717,7 @@
         <xdr:cNvPr id="69" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4DAE98-1CBC-4C56-B481-66B079B69362}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4DAE98-1CBC-4C56-B481-66B079B69362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6741,7 +6777,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -6750,7 +6786,7 @@
         <xdr:cNvPr id="70" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FFC546-5E5E-4EF6-8D42-AC7474EDF58B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FFC546-5E5E-4EF6-8D42-AC7474EDF58B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6810,7 +6846,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -6819,7 +6855,7 @@
         <xdr:cNvPr id="71" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92BDCA8-9144-4DB0-A3F1-59987CB75093}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92BDCA8-9144-4DB0-A3F1-59987CB75093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6879,7 +6915,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -6888,7 +6924,7 @@
         <xdr:cNvPr id="72" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6727BCE5-3B6B-49E4-A927-CE87E1D36EE9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6727BCE5-3B6B-49E4-A927-CE87E1D36EE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6948,7 +6984,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -6957,7 +6993,7 @@
         <xdr:cNvPr id="73" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC49CD1-0E49-45FD-A1DE-E574DAB6AA5B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC49CD1-0E49-45FD-A1DE-E574DAB6AA5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7017,7 +7053,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -7026,7 +7062,7 @@
         <xdr:cNvPr id="74" name="图片 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C1545B-FE0E-49BC-BA71-F76AE8B3F8CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C1545B-FE0E-49BC-BA71-F76AE8B3F8CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7086,7 +7122,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -7095,7 +7131,7 @@
         <xdr:cNvPr id="75" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAC15CC-06A9-4964-B902-69C002C7E20A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAC15CC-06A9-4964-B902-69C002C7E20A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7155,7 +7191,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -7164,7 +7200,7 @@
         <xdr:cNvPr id="76" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6FA464-5AA9-4114-A0B6-227F5E9DDFDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6FA464-5AA9-4114-A0B6-227F5E9DDFDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7224,7 +7260,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -7233,7 +7269,7 @@
         <xdr:cNvPr id="77" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702B3F40-26EB-478C-A055-0409AA0965C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702B3F40-26EB-478C-A055-0409AA0965C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7293,7 +7329,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -7302,7 +7338,7 @@
         <xdr:cNvPr id="78" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE6FE69-B4F0-44FF-A3E9-7C2EE3319EE0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE6FE69-B4F0-44FF-A3E9-7C2EE3319EE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7362,7 +7398,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -7371,7 +7407,7 @@
         <xdr:cNvPr id="79" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAADDCC6-904D-4D59-84DB-D6123C5D2143}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAADDCC6-904D-4D59-84DB-D6123C5D2143}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7431,7 +7467,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -7440,7 +7476,7 @@
         <xdr:cNvPr id="80" name="图片 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6697E746-AB38-4AE1-8DCD-9A60FBF1BAEE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6697E746-AB38-4AE1-8DCD-9A60FBF1BAEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7500,7 +7536,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -7509,7 +7545,7 @@
         <xdr:cNvPr id="81" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348A448D-272E-4526-9D94-7C206E2684C3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348A448D-272E-4526-9D94-7C206E2684C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7569,7 +7605,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -7578,7 +7614,7 @@
         <xdr:cNvPr id="82" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930C7549-3AE1-4BE2-9B9E-1EB9B43176DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930C7549-3AE1-4BE2-9B9E-1EB9B43176DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7638,7 +7674,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -7647,7 +7683,7 @@
         <xdr:cNvPr id="83" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E40663-1315-4E93-833C-1A1A0B976B8E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E40663-1315-4E93-833C-1A1A0B976B8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7707,7 +7743,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -7716,7 +7752,7 @@
         <xdr:cNvPr id="84" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D79306F-68E0-4268-A66E-202D216F1941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D79306F-68E0-4268-A66E-202D216F1941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7776,7 +7812,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1579413" cy="6350"/>
@@ -7785,7 +7821,7 @@
         <xdr:cNvPr id="85" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E671AF4-F393-45CB-BCFB-53D775460EBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E671AF4-F393-45CB-BCFB-53D775460EBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8099,17 +8135,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
@@ -8142,169 +8178,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="61" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="219" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="213"/>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="213"/>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="213"/>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="213"/>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="213"/>
-      <c r="AG1" s="213"/>
-      <c r="AH1" s="213"/>
-      <c r="AI1" s="213"/>
-      <c r="AJ1" s="213"/>
-      <c r="AK1" s="213"/>
-      <c r="AL1" s="213"/>
-      <c r="AM1" s="213"/>
-      <c r="AN1" s="213"/>
-      <c r="AO1" s="213"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="219"/>
+      <c r="T1" s="219"/>
+      <c r="U1" s="219"/>
+      <c r="V1" s="219"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="219"/>
+      <c r="Y1" s="219"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="219"/>
+      <c r="AB1" s="219"/>
+      <c r="AC1" s="219"/>
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="219"/>
+      <c r="AG1" s="219"/>
+      <c r="AH1" s="219"/>
+      <c r="AI1" s="219"/>
+      <c r="AJ1" s="219"/>
+      <c r="AK1" s="219"/>
+      <c r="AL1" s="219"/>
+      <c r="AM1" s="219"/>
+      <c r="AN1" s="219"/>
+      <c r="AO1" s="219"/>
       <c r="AP1" s="62"/>
       <c r="AQ1" s="62"/>
       <c r="AR1" s="62"/>
     </row>
     <row r="2" spans="1:47" s="61" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="214"/>
-      <c r="AB2" s="214"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="214"/>
-      <c r="AE2" s="214"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="214"/>
-      <c r="AH2" s="214"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="214"/>
-      <c r="AK2" s="214"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="214"/>
-      <c r="AN2" s="214"/>
-      <c r="AO2" s="214"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="220"/>
+      <c r="AH2" s="220"/>
+      <c r="AI2" s="220"/>
+      <c r="AJ2" s="220"/>
+      <c r="AK2" s="220"/>
+      <c r="AL2" s="220"/>
+      <c r="AM2" s="220"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="220"/>
       <c r="AP2" s="62"/>
       <c r="AQ2" s="62"/>
       <c r="AR2" s="62"/>
     </row>
     <row r="3" spans="1:47" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="221" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="223" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="204" t="s">
+      <c r="C3" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="204" t="s">
+      <c r="D3" s="210" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="204" t="s">
+      <c r="E3" s="210" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="218" t="s">
+      <c r="F3" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="218" t="s">
+      <c r="G3" s="224" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="219" t="s">
+      <c r="H3" s="225" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="223" t="s">
+      <c r="I3" s="229" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="224"/>
-      <c r="K3" s="218" t="s">
+      <c r="J3" s="230"/>
+      <c r="K3" s="224" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="221" t="s">
+      <c r="L3" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="222"/>
-      <c r="N3" s="221" t="s">
+      <c r="M3" s="228"/>
+      <c r="N3" s="227" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="222"/>
-      <c r="P3" s="221" t="s">
+      <c r="O3" s="228"/>
+      <c r="P3" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="222"/>
-      <c r="R3" s="227" t="s">
+      <c r="Q3" s="228"/>
+      <c r="R3" s="233" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="228" t="s">
+      <c r="S3" s="234" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="229"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="206" t="s">
+      <c r="T3" s="235"/>
+      <c r="U3" s="236"/>
+      <c r="V3" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="206" t="s">
+      <c r="W3" s="212" t="s">
         <v>85</v>
       </c>
-      <c r="X3" s="206" t="s">
+      <c r="X3" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="Y3" s="206" t="s">
+      <c r="Y3" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="Z3" s="208" t="s">
+      <c r="Z3" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="210"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="216"/>
       <c r="AF3" s="92" t="s">
         <v>108</v>
       </c>
@@ -8323,41 +8359,41 @@
       <c r="AK3" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="AL3" s="207" t="s">
+      <c r="AL3" s="213" t="s">
         <v>89</v>
       </c>
-      <c r="AM3" s="207" t="s">
+      <c r="AM3" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="AN3" s="207" t="s">
+      <c r="AN3" s="213" t="s">
         <v>91</v>
       </c>
-      <c r="AO3" s="207" t="s">
+      <c r="AO3" s="213" t="s">
         <v>92</v>
       </c>
-      <c r="AP3" s="208" t="s">
+      <c r="AP3" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="AQ3" s="209"/>
-      <c r="AR3" s="210"/>
-      <c r="AS3" s="208" t="s">
+      <c r="AQ3" s="215"/>
+      <c r="AR3" s="216"/>
+      <c r="AS3" s="214" t="s">
         <v>94</v>
       </c>
-      <c r="AT3" s="209"/>
-      <c r="AU3" s="210"/>
+      <c r="AT3" s="215"/>
+      <c r="AU3" s="216"/>
     </row>
     <row r="4" spans="1:47" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A4" s="216"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="226"/>
-      <c r="K4" s="218"/>
+      <c r="A4" s="222"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="224"/>
       <c r="L4" s="65" t="s">
         <v>95</v>
       </c>
@@ -8376,7 +8412,7 @@
       <c r="Q4" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="R4" s="227"/>
+      <c r="R4" s="233"/>
       <c r="S4" s="92" t="s">
         <v>99</v>
       </c>
@@ -8386,10 +8422,10 @@
       <c r="U4" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="V4" s="206"/>
-      <c r="W4" s="206"/>
-      <c r="X4" s="206"/>
-      <c r="Y4" s="206"/>
+      <c r="V4" s="212"/>
+      <c r="W4" s="212"/>
+      <c r="X4" s="212"/>
+      <c r="Y4" s="212"/>
       <c r="Z4" s="66" t="s">
         <v>102</v>
       </c>
@@ -8426,10 +8462,10 @@
       <c r="AK4" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="AL4" s="207"/>
-      <c r="AM4" s="207"/>
-      <c r="AN4" s="207"/>
-      <c r="AO4" s="207"/>
+      <c r="AL4" s="213"/>
+      <c r="AM4" s="213"/>
+      <c r="AN4" s="213"/>
+      <c r="AO4" s="213"/>
       <c r="AP4" s="66" t="s">
         <v>137</v>
       </c>
@@ -8472,10 +8508,10 @@
       <c r="H5" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="211" t="s">
+      <c r="I5" s="217" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="212"/>
+      <c r="J5" s="218"/>
       <c r="K5" s="70" t="s">
         <v>118</v>
       </c>
@@ -11150,57 +11186,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70:K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="125" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="233"/>
-      <c r="O1" s="233"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="239"/>
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
       <c r="D2" s="196" t="s">
         <v>2</v>
       </c>
@@ -11213,10 +11250,10 @@
         <v>70</v>
       </c>
       <c r="I2" s="198"/>
-      <c r="J2" s="235" t="s">
+      <c r="J2" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="235"/>
+      <c r="K2" s="241"/>
       <c r="L2" s="200"/>
       <c r="M2" s="201"/>
       <c r="N2" s="201" t="s">
@@ -12064,19 +12101,17 @@
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="238" t="s">
+      <c r="A44" s="244" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="238"/>
-      <c r="C44" s="238"/>
-      <c r="D44" s="238"/>
-      <c r="E44" s="238"/>
-      <c r="F44" s="238"/>
-      <c r="G44" s="238"/>
-      <c r="H44" s="238"/>
-      <c r="I44" s="19">
-        <v>32.526087799999992</v>
-      </c>
+      <c r="B44" s="244"/>
+      <c r="C44" s="244"/>
+      <c r="D44" s="244"/>
+      <c r="E44" s="244"/>
+      <c r="F44" s="244"/>
+      <c r="G44" s="244"/>
+      <c r="H44" s="244"/>
+      <c r="I44" s="19"/>
       <c r="J44" s="28"/>
       <c r="K44" s="19"/>
       <c r="L44" s="29"/>
@@ -12085,19 +12120,17 @@
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="238" t="s">
+      <c r="A45" s="244" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="238"/>
-      <c r="C45" s="238"/>
-      <c r="D45" s="238"/>
-      <c r="E45" s="238"/>
-      <c r="F45" s="238"/>
-      <c r="G45" s="238"/>
-      <c r="H45" s="238"/>
-      <c r="I45" s="19">
-        <v>4.1164183999999997</v>
-      </c>
+      <c r="B45" s="244"/>
+      <c r="C45" s="244"/>
+      <c r="D45" s="244"/>
+      <c r="E45" s="244"/>
+      <c r="F45" s="244"/>
+      <c r="G45" s="244"/>
+      <c r="H45" s="244"/>
+      <c r="I45" s="19"/>
       <c r="J45" s="28"/>
       <c r="K45" s="19"/>
       <c r="L45" s="29"/>
@@ -12106,19 +12139,17 @@
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="238" t="s">
+      <c r="A46" s="244" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="238"/>
-      <c r="C46" s="238"/>
-      <c r="D46" s="238"/>
-      <c r="E46" s="238"/>
-      <c r="F46" s="238"/>
-      <c r="G46" s="238"/>
-      <c r="H46" s="238"/>
-      <c r="I46" s="19">
-        <v>1.2172248000000001</v>
-      </c>
+      <c r="B46" s="244"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="244"/>
+      <c r="E46" s="244"/>
+      <c r="F46" s="244"/>
+      <c r="G46" s="244"/>
+      <c r="H46" s="244"/>
+      <c r="I46" s="19"/>
       <c r="J46" s="28"/>
       <c r="K46" s="19"/>
       <c r="L46" s="29"/>
@@ -12129,23 +12160,17 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="157"/>
-      <c r="C47" s="239" t="s">
+      <c r="C47" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="240"/>
-      <c r="E47" s="240"/>
-      <c r="F47" s="240"/>
-      <c r="G47" s="240"/>
-      <c r="H47" s="241"/>
-      <c r="I47" s="32">
-        <f>SUM(I44:I46)</f>
-        <v>37.859730999999989</v>
-      </c>
+      <c r="D47" s="246"/>
+      <c r="E47" s="246"/>
+      <c r="F47" s="246"/>
+      <c r="G47" s="246"/>
+      <c r="H47" s="247"/>
+      <c r="I47" s="32"/>
       <c r="J47" s="33"/>
-      <c r="K47" s="32">
-        <f>SUM(K17:K43)</f>
-        <v>0</v>
-      </c>
+      <c r="K47" s="32"/>
       <c r="L47" s="179"/>
       <c r="M47" s="180"/>
       <c r="N47" s="34"/>
@@ -12156,10 +12181,10 @@
       <c r="B48" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="242" t="s">
+      <c r="C48" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="243"/>
+      <c r="D48" s="249"/>
       <c r="E48" s="36" t="s">
         <v>40</v>
       </c>
@@ -12191,8 +12216,8 @@
         <v>1</v>
       </c>
       <c r="B49" s="182"/>
-      <c r="C49" s="244"/>
-      <c r="D49" s="245"/>
+      <c r="C49" s="250"/>
+      <c r="D49" s="251"/>
       <c r="E49" s="172"/>
       <c r="F49" s="173"/>
       <c r="G49" s="183"/>
@@ -12210,8 +12235,8 @@
         <v>2</v>
       </c>
       <c r="B50" s="182"/>
-      <c r="C50" s="244"/>
-      <c r="D50" s="245"/>
+      <c r="C50" s="250"/>
+      <c r="D50" s="251"/>
       <c r="E50" s="172"/>
       <c r="F50" s="173"/>
       <c r="G50" s="183"/>
@@ -12229,8 +12254,8 @@
         <v>3</v>
       </c>
       <c r="B51" s="182"/>
-      <c r="C51" s="244"/>
-      <c r="D51" s="245"/>
+      <c r="C51" s="250"/>
+      <c r="D51" s="251"/>
       <c r="E51" s="172"/>
       <c r="F51" s="173"/>
       <c r="G51" s="183"/>
@@ -12248,8 +12273,8 @@
         <v>4</v>
       </c>
       <c r="B52" s="182"/>
-      <c r="C52" s="244"/>
-      <c r="D52" s="245"/>
+      <c r="C52" s="250"/>
+      <c r="D52" s="251"/>
       <c r="E52" s="172"/>
       <c r="F52" s="173"/>
       <c r="G52" s="183"/>
@@ -12267,8 +12292,8 @@
         <v>5</v>
       </c>
       <c r="B53" s="182"/>
-      <c r="C53" s="244"/>
-      <c r="D53" s="245"/>
+      <c r="C53" s="250"/>
+      <c r="D53" s="251"/>
       <c r="E53" s="172"/>
       <c r="F53" s="172"/>
       <c r="G53" s="172"/>
@@ -12286,8 +12311,8 @@
         <v>6</v>
       </c>
       <c r="B54" s="182"/>
-      <c r="C54" s="244"/>
-      <c r="D54" s="245"/>
+      <c r="C54" s="250"/>
+      <c r="D54" s="251"/>
       <c r="E54" s="172"/>
       <c r="F54" s="173"/>
       <c r="G54" s="184"/>
@@ -12303,23 +12328,17 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="157"/>
-      <c r="C55" s="236" t="s">
+      <c r="C55" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="236"/>
-      <c r="E55" s="236"/>
-      <c r="F55" s="237"/>
-      <c r="G55" s="237"/>
-      <c r="H55" s="236"/>
-      <c r="I55" s="32">
-        <f>SUM(I49:I54)</f>
-        <v>0</v>
-      </c>
+      <c r="D55" s="242"/>
+      <c r="E55" s="242"/>
+      <c r="F55" s="243"/>
+      <c r="G55" s="243"/>
+      <c r="H55" s="242"/>
+      <c r="I55" s="32"/>
       <c r="J55" s="161"/>
-      <c r="K55" s="32">
-        <f>SUM(K49:K54)</f>
-        <v>0</v>
-      </c>
+      <c r="K55" s="32"/>
       <c r="L55" s="33" t="s">
         <v>45</v>
       </c>
@@ -12332,10 +12351,10 @@
       <c r="B56" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="242" t="s">
+      <c r="C56" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="243"/>
+      <c r="D56" s="249"/>
       <c r="E56" s="36" t="s">
         <v>47</v>
       </c>
@@ -12364,13 +12383,13 @@
       <c r="N56" s="37"/>
       <c r="O56" s="37"/>
     </row>
-    <row r="57" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="162">
         <v>1</v>
       </c>
       <c r="B57" s="160"/>
-      <c r="C57" s="248"/>
-      <c r="D57" s="249"/>
+      <c r="C57" s="254"/>
+      <c r="D57" s="255"/>
       <c r="E57" s="194"/>
       <c r="F57" s="194"/>
       <c r="G57" s="19"/>
@@ -12383,105 +12402,93 @@
       <c r="N57" s="42"/>
       <c r="O57" s="42"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-      <c r="B58" s="157"/>
-      <c r="C58" s="236" t="s">
+    <row r="58" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="204">
+        <v>2</v>
+      </c>
+      <c r="B58" s="205"/>
+      <c r="C58" s="254"/>
+      <c r="D58" s="255"/>
+      <c r="E58" s="206"/>
+      <c r="F58" s="206"/>
+      <c r="G58" s="168"/>
+      <c r="H58" s="169"/>
+      <c r="I58" s="168"/>
+      <c r="J58" s="168"/>
+      <c r="K58" s="168"/>
+      <c r="L58" s="207"/>
+      <c r="M58" s="208"/>
+      <c r="N58" s="209"/>
+      <c r="O58" s="209"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="43"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="242" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="236"/>
-      <c r="E58" s="236"/>
-      <c r="F58" s="237"/>
-      <c r="G58" s="237"/>
-      <c r="H58" s="236"/>
-      <c r="I58" s="32">
-        <f>I57</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="161"/>
-      <c r="K58" s="32">
-        <f>SUM(K57:K57)</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="33" t="s">
+      <c r="D59" s="242"/>
+      <c r="E59" s="242"/>
+      <c r="F59" s="243"/>
+      <c r="G59" s="243"/>
+      <c r="H59" s="242"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="161"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M58" s="127"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-    </row>
-    <row r="59" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="159" t="s">
+      <c r="M59" s="127"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+    </row>
+    <row r="60" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="242" t="s">
+      <c r="C60" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="243"/>
-      <c r="E59" s="36" t="s">
+      <c r="D60" s="249"/>
+      <c r="E60" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F59" s="36" t="s">
+      <c r="F60" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="36" t="s">
+      <c r="G60" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="37" t="s">
+      <c r="H60" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="I59" s="36" t="s">
+      <c r="I60" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J59" s="38" t="s">
+      <c r="J60" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="K59" s="38" t="s">
+      <c r="K60" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="L59" s="39" t="s">
+      <c r="L60" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="M59" s="16"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-    </row>
-    <row r="60" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44">
+      <c r="M60" s="16"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+    </row>
+    <row r="61" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44">
         <v>1</v>
       </c>
-      <c r="B60" s="160"/>
-      <c r="C60" s="246" t="s">
+      <c r="B61" s="160"/>
+      <c r="C61" s="252" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="247"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="47"/>
-    </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44">
-        <v>2</v>
-      </c>
-      <c r="B61" s="160"/>
-      <c r="C61" s="246" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="247"/>
-      <c r="E61" s="46" t="s">
-        <v>54</v>
-      </c>
+      <c r="D61" s="253"/>
+      <c r="E61" s="46"/>
       <c r="F61" s="45"/>
       <c r="G61" s="19" t="s">
         <v>23</v>
@@ -12495,17 +12502,17 @@
       <c r="N61" s="49"/>
       <c r="O61" s="47"/>
     </row>
-    <row r="62" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62" s="160"/>
-      <c r="C62" s="246" t="s">
+      <c r="C62" s="252" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="247"/>
+      <c r="D62" s="253"/>
       <c r="E62" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F62" s="45"/>
       <c r="G62" s="19" t="s">
@@ -12522,15 +12529,15 @@
     </row>
     <row r="63" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" s="160"/>
-      <c r="C63" s="246" t="s">
+      <c r="C63" s="252" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="247"/>
+      <c r="D63" s="253"/>
       <c r="E63" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F63" s="45"/>
       <c r="G63" s="19" t="s">
@@ -12547,19 +12554,21 @@
     </row>
     <row r="64" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" s="160"/>
-      <c r="C64" s="246" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="247"/>
-      <c r="E64" s="46"/>
+      <c r="C64" s="252" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="253"/>
+      <c r="E64" s="46" t="s">
+        <v>57</v>
+      </c>
       <c r="F64" s="45"/>
       <c r="G64" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H64" s="47"/>
+        <v>23</v>
+      </c>
+      <c r="H64" s="19"/>
       <c r="I64" s="48"/>
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
@@ -12570,17 +12579,17 @@
     </row>
     <row r="65" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65" s="160"/>
-      <c r="C65" s="246" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="247"/>
+      <c r="C65" s="252" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="253"/>
       <c r="E65" s="46"/>
       <c r="F65" s="45"/>
       <c r="G65" s="19" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="H65" s="47"/>
       <c r="I65" s="48"/>
@@ -12589,21 +12598,21 @@
       <c r="L65" s="21"/>
       <c r="M65" s="29"/>
       <c r="N65" s="49"/>
-      <c r="O65" s="19"/>
+      <c r="O65" s="47"/>
     </row>
     <row r="66" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" s="160"/>
-      <c r="C66" s="246" t="s">
+      <c r="C66" s="252" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="247"/>
+      <c r="D66" s="253"/>
       <c r="E66" s="46"/>
       <c r="F66" s="45"/>
       <c r="G66" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H66" s="47"/>
       <c r="I66" s="48"/>
@@ -12614,87 +12623,83 @@
       <c r="N66" s="49"/>
       <c r="O66" s="19"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" s="160"/>
-      <c r="C67" s="246" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="247"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="19"/>
+      <c r="C67" s="252" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="253"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="47"/>
+      <c r="I67" s="48"/>
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
       <c r="L67" s="21"/>
-      <c r="M67" s="119"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="42"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="19"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68" s="160"/>
-      <c r="C68" s="246"/>
-      <c r="D68" s="247"/>
+      <c r="C68" s="252" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="253"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
-      <c r="G68" s="194"/>
+      <c r="G68" s="19"/>
       <c r="H68" s="41"/>
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
-      <c r="K68" s="50"/>
+      <c r="K68" s="19"/>
       <c r="L68" s="21"/>
       <c r="M68" s="119"/>
       <c r="N68" s="42"/>
       <c r="O68" s="42"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="157"/>
-      <c r="C69" s="239" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="240"/>
-      <c r="E69" s="240"/>
-      <c r="F69" s="240"/>
-      <c r="G69" s="240"/>
-      <c r="H69" s="240"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="32">
-        <f>SUM(K60:K68)</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="M69" s="127"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
+      <c r="A69" s="44">
+        <v>9</v>
+      </c>
+      <c r="B69" s="160"/>
+      <c r="C69" s="252"/>
+      <c r="D69" s="253"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="194"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="119"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="157"/>
-      <c r="C70" s="239" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="240"/>
-      <c r="E70" s="240"/>
-      <c r="F70" s="240"/>
-      <c r="G70" s="240"/>
-      <c r="H70" s="240"/>
-      <c r="I70" s="240"/>
-      <c r="J70" s="241"/>
-      <c r="K70" s="32">
-        <f>K69+K58+K55+K47</f>
-        <v>0</v>
-      </c>
+      <c r="C70" s="245" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="246"/>
+      <c r="E70" s="246"/>
+      <c r="F70" s="246"/>
+      <c r="G70" s="246"/>
+      <c r="H70" s="246"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="32"/>
       <c r="L70" s="33" t="s">
         <v>45</v>
       </c>
@@ -12702,71 +12707,69 @@
       <c r="N70" s="34"/>
       <c r="O70" s="34"/>
     </row>
-    <row r="71" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="159" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="43"/>
+      <c r="B71" s="157"/>
+      <c r="C71" s="245" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="246"/>
+      <c r="E71" s="246"/>
+      <c r="F71" s="246"/>
+      <c r="G71" s="246"/>
+      <c r="H71" s="246"/>
+      <c r="I71" s="246"/>
+      <c r="J71" s="247"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="M71" s="127"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+    </row>
+    <row r="72" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A72" s="35"/>
+      <c r="B72" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="242" t="s">
+      <c r="C72" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="243"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36" t="s">
+      <c r="D72" s="249"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H71" s="51" t="s">
+      <c r="H72" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="I71" s="36" t="s">
+      <c r="I72" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J71" s="38" t="s">
+      <c r="J72" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="K71" s="38" t="s">
+      <c r="K72" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="L71" s="52" t="s">
+      <c r="L72" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M71" s="52"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="162">
-        <v>1</v>
-      </c>
-      <c r="B72" s="160"/>
-      <c r="C72" s="252" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="253"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H72" s="41"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="119"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" s="160"/>
-      <c r="C73" s="252" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" s="253"/>
+      <c r="C73" s="258" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="259"/>
       <c r="E73" s="18"/>
       <c r="F73" s="19"/>
       <c r="G73" s="18" t="s">
@@ -12781,69 +12784,91 @@
       <c r="N73" s="41"/>
       <c r="O73" s="41"/>
     </row>
-    <row r="74" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" s="157"/>
-      <c r="C74" s="239" t="s">
-        <v>67</v>
-      </c>
-      <c r="D74" s="241"/>
-      <c r="E74" s="157"/>
-      <c r="F74" s="236" t="s">
-        <v>68</v>
-      </c>
-      <c r="G74" s="236"/>
-      <c r="H74" s="236"/>
-      <c r="I74" s="236"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="M74" s="127"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34"/>
-    </row>
-    <row r="75" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="162">
+        <v>2</v>
+      </c>
+      <c r="B74" s="160"/>
+      <c r="C74" s="258" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="259"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H74" s="41"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="119"/>
+      <c r="N74" s="41"/>
+      <c r="O74" s="41"/>
+    </row>
+    <row r="75" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="157"/>
-      <c r="C75" s="250" t="s">
+      <c r="C75" s="245" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="247"/>
+      <c r="E75" s="157"/>
+      <c r="F75" s="242" t="s">
+        <v>68</v>
+      </c>
+      <c r="G75" s="242"/>
+      <c r="H75" s="242"/>
+      <c r="I75" s="242"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="M75" s="127"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+    </row>
+    <row r="76" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="43"/>
+      <c r="B76" s="157"/>
+      <c r="C76" s="256" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="251"/>
-      <c r="E75" s="158"/>
-      <c r="F75" s="239" t="s">
+      <c r="D76" s="257"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="245" t="s">
         <v>68</v>
       </c>
-      <c r="G75" s="240"/>
-      <c r="H75" s="240"/>
-      <c r="I75" s="240"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="55" t="s">
+      <c r="G76" s="246"/>
+      <c r="H76" s="246"/>
+      <c r="I76" s="246"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="M75" s="55"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="56"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:I74"/>
+  <mergeCells count="38">
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="F75:I75"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:J71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C68:D68"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C59:H59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
@@ -12851,6 +12876,8 @@
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C58:D58"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="J2:K2"/>

--- a/Support/Sunac2019/LocalMode/门窗算量表格.xlsx
+++ b/Support/Sunac2019/LocalMode/门窗算量表格.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="153">
   <si>
     <t>窗单价组合分析表</t>
   </si>
@@ -1874,48 +1874,36 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1955,6 +1943,63 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1970,58 +2015,13 @@
     <xf numFmtId="176" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2069,7 +2069,7 @@
         <xdr:cNvPr id="2" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056E7DFC-97A2-4F8C-B5B3-937E2AEB8354}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{056E7DFC-97A2-4F8C-B5B3-937E2AEB8354}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2143,7 @@
         <xdr:cNvPr id="3" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD545937-26AF-44F5-8C43-9CDB08B04B54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD545937-26AF-44F5-8C43-9CDB08B04B54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2217,7 @@
         <xdr:cNvPr id="4" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BF13FE-3748-49F2-B74A-1D0F72FD2BDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9BF13FE-3748-49F2-B74A-1D0F72FD2BDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2291,7 @@
         <xdr:cNvPr id="5" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761D93EA-30AB-48DC-A7BA-66B681F68C45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{761D93EA-30AB-48DC-A7BA-66B681F68C45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2365,7 @@
         <xdr:cNvPr id="6" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC01A1B9-18EE-4FA0-B56D-01C1EE688332}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC01A1B9-18EE-4FA0-B56D-01C1EE688332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2439,7 @@
         <xdr:cNvPr id="7" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A6AC8B-97B2-46CD-BE94-8046272215B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58A6AC8B-97B2-46CD-BE94-8046272215B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2508,7 @@
         <xdr:cNvPr id="8" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB00F07-9E1B-46F0-8BFF-C19A9DD07AB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CB00F07-9E1B-46F0-8BFF-C19A9DD07AB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2577,7 @@
         <xdr:cNvPr id="9" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0C04BA-8B46-42D8-9ED7-4DF306E9D54A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F0C04BA-8B46-42D8-9ED7-4DF306E9D54A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2646,7 @@
         <xdr:cNvPr id="10" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6808311-41A6-43CB-BB6E-C2FE97B663C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6808311-41A6-43CB-BB6E-C2FE97B663C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2715,7 @@
         <xdr:cNvPr id="11" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA2051D-5461-4773-8950-0F0B4AAFE044}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEA2051D-5461-4773-8950-0F0B4AAFE044}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2784,7 @@
         <xdr:cNvPr id="12" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1A0A58-131C-44C8-A326-C946A0627F22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB1A0A58-131C-44C8-A326-C946A0627F22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2853,7 @@
         <xdr:cNvPr id="13" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFE2D51-D747-4AAB-88BF-AE934141D045}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFFE2D51-D747-4AAB-88BF-AE934141D045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2922,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D19AB3-E4EB-4213-9C92-BB021D5F5F03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9D19AB3-E4EB-4213-9C92-BB021D5F5F03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2991,7 @@
         <xdr:cNvPr id="15" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39256756-6960-4E6C-8AAC-18DFAB8B67A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39256756-6960-4E6C-8AAC-18DFAB8B67A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="16" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F5BDCA-8E73-41F8-B754-B7E5F5044A0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80F5BDCA-8E73-41F8-B754-B7E5F5044A0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3129,7 @@
         <xdr:cNvPr id="17" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E191A14B-CBB7-4FAC-85D6-BDD8B7F16ABE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E191A14B-CBB7-4FAC-85D6-BDD8B7F16ABE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3198,7 +3198,7 @@
         <xdr:cNvPr id="18" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575DC458-C05A-4512-9A50-FDC25B47AE2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{575DC458-C05A-4512-9A50-FDC25B47AE2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3267,7 @@
         <xdr:cNvPr id="19" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B64ECB-6C38-4306-B420-D0F6CFED533F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9B64ECB-6C38-4306-B420-D0F6CFED533F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,7 +3336,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71BE643-4AC7-48AB-95F2-FCD0E7575E30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A71BE643-4AC7-48AB-95F2-FCD0E7575E30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3405,7 +3405,7 @@
         <xdr:cNvPr id="21" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855D2040-4B93-4E04-A85C-E8FF44B82264}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{855D2040-4B93-4E04-A85C-E8FF44B82264}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3474,7 +3474,7 @@
         <xdr:cNvPr id="22" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B35528-501C-4087-B60F-C4F4F231C11C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3B35528-501C-4087-B60F-C4F4F231C11C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3543,7 +3543,7 @@
         <xdr:cNvPr id="23" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7BB651-822B-48C4-8DC6-E1179C8053FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B7BB651-822B-48C4-8DC6-E1179C8053FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3612,7 +3612,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7101563A-0B63-4C7A-A901-FE12B33B3C78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7101563A-0B63-4C7A-A901-FE12B33B3C78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3681,7 +3681,7 @@
         <xdr:cNvPr id="25" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE61DFA6-5608-4727-8AFC-166F134E8846}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE61DFA6-5608-4727-8AFC-166F134E8846}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3750,7 +3750,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C34900-73D0-4C93-BE33-C7B592551D00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4C34900-73D0-4C93-BE33-C7B592551D00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3819,7 +3819,7 @@
         <xdr:cNvPr id="27" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99978E34-E19D-4B82-8BC3-C6561DF85A41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99978E34-E19D-4B82-8BC3-C6561DF85A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3888,7 +3888,7 @@
         <xdr:cNvPr id="28" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C3B80C-FD7E-41C2-8741-B01CB9AA0E92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07C3B80C-FD7E-41C2-8741-B01CB9AA0E92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3957,7 +3957,7 @@
         <xdr:cNvPr id="29" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501554D4-DADC-406A-8B8E-822AF96391EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{501554D4-DADC-406A-8B8E-822AF96391EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4026,7 +4026,7 @@
         <xdr:cNvPr id="30" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E74EF0B-F9BF-42C8-9D88-498F4339C4DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E74EF0B-F9BF-42C8-9D88-498F4339C4DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4095,7 +4095,7 @@
         <xdr:cNvPr id="31" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496B920C-59E8-4050-AB99-6EAE080030C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{496B920C-59E8-4050-AB99-6EAE080030C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4164,7 +4164,7 @@
         <xdr:cNvPr id="32" name="图片 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB9E06D-539F-4A1D-8C7D-278A47A860A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DB9E06D-539F-4A1D-8C7D-278A47A860A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4233,7 +4233,7 @@
         <xdr:cNvPr id="33" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F68237-A6FF-4C08-9610-34B67C477BC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2F68237-A6FF-4C08-9610-34B67C477BC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4302,7 +4302,7 @@
         <xdr:cNvPr id="34" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156F006F-B9B9-4500-A55C-CB0933C92F3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{156F006F-B9B9-4500-A55C-CB0933C92F3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4371,7 +4371,7 @@
         <xdr:cNvPr id="35" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A5E84B-3C3B-4857-A07D-E7E5FFFDF1AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4A5E84B-3C3B-4857-A07D-E7E5FFFDF1AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4440,7 +4440,7 @@
         <xdr:cNvPr id="36" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3928AC-C880-4C34-A150-7BD49B2467B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA3928AC-C880-4C34-A150-7BD49B2467B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4509,7 +4509,7 @@
         <xdr:cNvPr id="37" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E020AA60-9C40-440A-A630-D639CB5EEF35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E020AA60-9C40-440A-A630-D639CB5EEF35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4578,7 +4578,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEBAC48-0CF0-40FA-B5AE-4B2292EEED22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DEBAC48-0CF0-40FA-B5AE-4B2292EEED22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4647,7 +4647,7 @@
         <xdr:cNvPr id="39" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFA4090-41B0-40E5-9C76-0F5DB9A5CD54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EFA4090-41B0-40E5-9C76-0F5DB9A5CD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4716,7 +4716,7 @@
         <xdr:cNvPr id="40" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35992E37-FF99-4275-9EDE-1560B7131904}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35992E37-FF99-4275-9EDE-1560B7131904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4785,7 +4785,7 @@
         <xdr:cNvPr id="41" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362DAA56-7CC3-4AE3-A19C-9FA188771081}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{362DAA56-7CC3-4AE3-A19C-9FA188771081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4854,7 +4854,7 @@
         <xdr:cNvPr id="42" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BE53FF-7A17-4ECF-A484-54B6166EC80C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2BE53FF-7A17-4ECF-A484-54B6166EC80C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4923,7 +4923,7 @@
         <xdr:cNvPr id="43" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BBB3E9-D4FF-41B8-8F42-ACD76A4C96FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48BBB3E9-D4FF-41B8-8F42-ACD76A4C96FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4992,7 +4992,7 @@
         <xdr:cNvPr id="44" name="图片 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1395F89D-7F82-45DB-A952-E3C2B40DE020}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1395F89D-7F82-45DB-A952-E3C2B40DE020}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5061,7 +5061,7 @@
         <xdr:cNvPr id="45" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E13BAD1-97BA-4D1C-BD7C-EF25538C57EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E13BAD1-97BA-4D1C-BD7C-EF25538C57EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5130,7 +5130,7 @@
         <xdr:cNvPr id="46" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA94FD7-59CB-4D5B-8BA9-D128009181F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FA94FD7-59CB-4D5B-8BA9-D128009181F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5199,7 +5199,7 @@
         <xdr:cNvPr id="47" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798DD307-BE34-4642-BCFC-970C6ADBED38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{798DD307-BE34-4642-BCFC-970C6ADBED38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5268,7 +5268,7 @@
         <xdr:cNvPr id="48" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66497E25-71E7-4565-978E-A46CDD901248}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66497E25-71E7-4565-978E-A46CDD901248}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5337,7 +5337,7 @@
         <xdr:cNvPr id="49" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C91032B-70F4-44CA-B3E1-0CBB714420F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C91032B-70F4-44CA-B3E1-0CBB714420F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5406,7 +5406,7 @@
         <xdr:cNvPr id="50" name="图片 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD3C97C-C63E-429F-8B65-E1CDB475E881}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CD3C97C-C63E-429F-8B65-E1CDB475E881}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5475,7 +5475,7 @@
         <xdr:cNvPr id="51" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286E29B1-E328-48C8-AB02-B6267E92EA94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{286E29B1-E328-48C8-AB02-B6267E92EA94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5544,7 +5544,7 @@
         <xdr:cNvPr id="52" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B38B4F8-63D1-4C89-9615-D8D2B7DE09D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B38B4F8-63D1-4C89-9615-D8D2B7DE09D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5613,7 +5613,7 @@
         <xdr:cNvPr id="53" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22313ED8-50C2-4DED-AE65-74ABCCEC29DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22313ED8-50C2-4DED-AE65-74ABCCEC29DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5682,7 +5682,7 @@
         <xdr:cNvPr id="54" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EFBC15-F540-43D2-A941-C53A87F927DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7EFBC15-F540-43D2-A941-C53A87F927DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5751,7 +5751,7 @@
         <xdr:cNvPr id="55" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2FCAA4-A1B8-4973-8BDC-11A174017F54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E2FCAA4-A1B8-4973-8BDC-11A174017F54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5820,7 +5820,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8674E2-2C70-425F-8A0C-3F91138C2FA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A8674E2-2C70-425F-8A0C-3F91138C2FA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5889,7 +5889,7 @@
         <xdr:cNvPr id="57" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8435591D-2160-4874-9E53-73A616EDF887}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8435591D-2160-4874-9E53-73A616EDF887}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5958,7 +5958,7 @@
         <xdr:cNvPr id="58" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5CBBB4-E4A6-4293-A274-E01FB0A9D47E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C5CBBB4-E4A6-4293-A274-E01FB0A9D47E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6027,7 +6027,7 @@
         <xdr:cNvPr id="59" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D2A69F-0D21-4E9A-86D8-98BEE1EDD269}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44D2A69F-0D21-4E9A-86D8-98BEE1EDD269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6096,7 +6096,7 @@
         <xdr:cNvPr id="60" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAC6AF2-2379-4640-BEF8-9E9C8DB25EDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BAC6AF2-2379-4640-BEF8-9E9C8DB25EDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6165,7 +6165,7 @@
         <xdr:cNvPr id="61" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1344DBA-C1C2-4FB6-91AF-8F68BEAE9702}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1344DBA-C1C2-4FB6-91AF-8F68BEAE9702}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6234,7 +6234,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88F561C-EDF9-4B16-A9EB-EEFE0E7D93E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F88F561C-EDF9-4B16-A9EB-EEFE0E7D93E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6303,7 +6303,7 @@
         <xdr:cNvPr id="63" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08D3B99-FAD7-442B-B31F-4AC5856BF07A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B08D3B99-FAD7-442B-B31F-4AC5856BF07A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6372,7 +6372,7 @@
         <xdr:cNvPr id="64" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B637411-37B1-450C-9E91-4FE42205B744}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B637411-37B1-450C-9E91-4FE42205B744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6441,7 +6441,7 @@
         <xdr:cNvPr id="65" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFED5A5C-CF94-481E-BDCE-27327C408EE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFED5A5C-CF94-481E-BDCE-27327C408EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6510,7 +6510,7 @@
         <xdr:cNvPr id="66" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE5D975-1ECF-4429-AC68-B325B6ADE30C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AE5D975-1ECF-4429-AC68-B325B6ADE30C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6579,7 +6579,7 @@
         <xdr:cNvPr id="67" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D2BDD1-F169-4C22-A5DF-3364B979ED73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8D2BDD1-F169-4C22-A5DF-3364B979ED73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6648,7 +6648,7 @@
         <xdr:cNvPr id="68" name="图片 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5998AC-CBBC-49C7-8A28-84FE39E0D327}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E5998AC-CBBC-49C7-8A28-84FE39E0D327}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6717,7 +6717,7 @@
         <xdr:cNvPr id="69" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4DAE98-1CBC-4C56-B481-66B079B69362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC4DAE98-1CBC-4C56-B481-66B079B69362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6786,7 +6786,7 @@
         <xdr:cNvPr id="70" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FFC546-5E5E-4EF6-8D42-AC7474EDF58B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87FFC546-5E5E-4EF6-8D42-AC7474EDF58B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6855,7 +6855,7 @@
         <xdr:cNvPr id="71" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92BDCA8-9144-4DB0-A3F1-59987CB75093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C92BDCA8-9144-4DB0-A3F1-59987CB75093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6924,7 +6924,7 @@
         <xdr:cNvPr id="72" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6727BCE5-3B6B-49E4-A927-CE87E1D36EE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6727BCE5-3B6B-49E4-A927-CE87E1D36EE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6993,7 +6993,7 @@
         <xdr:cNvPr id="73" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC49CD1-0E49-45FD-A1DE-E574DAB6AA5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FC49CD1-0E49-45FD-A1DE-E574DAB6AA5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7062,7 +7062,7 @@
         <xdr:cNvPr id="74" name="图片 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C1545B-FE0E-49BC-BA71-F76AE8B3F8CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87C1545B-FE0E-49BC-BA71-F76AE8B3F8CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7131,7 +7131,7 @@
         <xdr:cNvPr id="75" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAC15CC-06A9-4964-B902-69C002C7E20A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECAC15CC-06A9-4964-B902-69C002C7E20A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7200,7 +7200,7 @@
         <xdr:cNvPr id="76" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6FA464-5AA9-4114-A0B6-227F5E9DDFDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD6FA464-5AA9-4114-A0B6-227F5E9DDFDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7269,7 +7269,7 @@
         <xdr:cNvPr id="77" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702B3F40-26EB-478C-A055-0409AA0965C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{702B3F40-26EB-478C-A055-0409AA0965C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7338,7 +7338,7 @@
         <xdr:cNvPr id="78" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE6FE69-B4F0-44FF-A3E9-7C2EE3319EE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAE6FE69-B4F0-44FF-A3E9-7C2EE3319EE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7407,7 +7407,7 @@
         <xdr:cNvPr id="79" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAADDCC6-904D-4D59-84DB-D6123C5D2143}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAADDCC6-904D-4D59-84DB-D6123C5D2143}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7476,7 +7476,7 @@
         <xdr:cNvPr id="80" name="图片 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6697E746-AB38-4AE1-8DCD-9A60FBF1BAEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6697E746-AB38-4AE1-8DCD-9A60FBF1BAEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7545,7 +7545,7 @@
         <xdr:cNvPr id="81" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348A448D-272E-4526-9D94-7C206E2684C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{348A448D-272E-4526-9D94-7C206E2684C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7614,7 +7614,7 @@
         <xdr:cNvPr id="82" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930C7549-3AE1-4BE2-9B9E-1EB9B43176DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{930C7549-3AE1-4BE2-9B9E-1EB9B43176DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7683,7 +7683,7 @@
         <xdr:cNvPr id="83" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E40663-1315-4E93-833C-1A1A0B976B8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7E40663-1315-4E93-833C-1A1A0B976B8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7752,7 +7752,7 @@
         <xdr:cNvPr id="84" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D79306F-68E0-4268-A66E-202D216F1941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D79306F-68E0-4268-A66E-202D216F1941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7821,7 +7821,7 @@
         <xdr:cNvPr id="85" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E671AF4-F393-45CB-BCFB-53D775460EBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E671AF4-F393-45CB-BCFB-53D775460EBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8135,7 +8135,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8178,149 +8178,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="61" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="213" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="219"/>
-      <c r="P1" s="219"/>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="219"/>
-      <c r="S1" s="219"/>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="219"/>
-      <c r="AB1" s="219"/>
-      <c r="AC1" s="219"/>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="219"/>
-      <c r="AG1" s="219"/>
-      <c r="AH1" s="219"/>
-      <c r="AI1" s="219"/>
-      <c r="AJ1" s="219"/>
-      <c r="AK1" s="219"/>
-      <c r="AL1" s="219"/>
-      <c r="AM1" s="219"/>
-      <c r="AN1" s="219"/>
-      <c r="AO1" s="219"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="213"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="213"/>
+      <c r="AA1" s="213"/>
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="213"/>
+      <c r="AD1" s="213"/>
+      <c r="AE1" s="213"/>
+      <c r="AF1" s="213"/>
+      <c r="AG1" s="213"/>
+      <c r="AH1" s="213"/>
+      <c r="AI1" s="213"/>
+      <c r="AJ1" s="213"/>
+      <c r="AK1" s="213"/>
+      <c r="AL1" s="213"/>
+      <c r="AM1" s="213"/>
+      <c r="AN1" s="213"/>
+      <c r="AO1" s="213"/>
       <c r="AP1" s="62"/>
       <c r="AQ1" s="62"/>
       <c r="AR1" s="62"/>
     </row>
     <row r="2" spans="1:47" s="61" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="220"/>
-      <c r="AC2" s="220"/>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="220"/>
-      <c r="AH2" s="220"/>
-      <c r="AI2" s="220"/>
-      <c r="AJ2" s="220"/>
-      <c r="AK2" s="220"/>
-      <c r="AL2" s="220"/>
-      <c r="AM2" s="220"/>
-      <c r="AN2" s="220"/>
-      <c r="AO2" s="220"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="214"/>
+      <c r="AH2" s="214"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="214"/>
+      <c r="AK2" s="214"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="214"/>
+      <c r="AN2" s="214"/>
+      <c r="AO2" s="214"/>
       <c r="AP2" s="62"/>
       <c r="AQ2" s="62"/>
       <c r="AR2" s="62"/>
     </row>
     <row r="3" spans="1:47" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="221" t="s">
+      <c r="A3" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="223" t="s">
+      <c r="B3" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="210" t="s">
+      <c r="C3" s="218" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="210" t="s">
+      <c r="D3" s="218" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="210" t="s">
+      <c r="E3" s="218" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="224" t="s">
+      <c r="F3" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="224" t="s">
+      <c r="G3" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="225" t="s">
+      <c r="H3" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="229" t="s">
+      <c r="I3" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="230"/>
-      <c r="K3" s="224" t="s">
+      <c r="J3" s="226"/>
+      <c r="K3" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="227" t="s">
+      <c r="L3" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="228"/>
-      <c r="N3" s="227" t="s">
+      <c r="M3" s="224"/>
+      <c r="N3" s="223" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="228"/>
-      <c r="P3" s="227" t="s">
+      <c r="O3" s="224"/>
+      <c r="P3" s="223" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="233" t="s">
+      <c r="Q3" s="224"/>
+      <c r="R3" s="229" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="234" t="s">
+      <c r="S3" s="230" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="235"/>
-      <c r="U3" s="236"/>
+      <c r="T3" s="231"/>
+      <c r="U3" s="232"/>
       <c r="V3" s="212" t="s">
         <v>84</v>
       </c>
@@ -8333,14 +8333,14 @@
       <c r="Y3" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="Z3" s="214" t="s">
+      <c r="Z3" s="233" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="215"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="215"/>
-      <c r="AD3" s="215"/>
-      <c r="AE3" s="216"/>
+      <c r="AA3" s="234"/>
+      <c r="AB3" s="234"/>
+      <c r="AC3" s="234"/>
+      <c r="AD3" s="234"/>
+      <c r="AE3" s="235"/>
       <c r="AF3" s="92" t="s">
         <v>108</v>
       </c>
@@ -8359,41 +8359,41 @@
       <c r="AK3" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="AL3" s="213" t="s">
+      <c r="AL3" s="236" t="s">
         <v>89</v>
       </c>
-      <c r="AM3" s="213" t="s">
+      <c r="AM3" s="236" t="s">
         <v>90</v>
       </c>
-      <c r="AN3" s="213" t="s">
+      <c r="AN3" s="236" t="s">
         <v>91</v>
       </c>
-      <c r="AO3" s="213" t="s">
+      <c r="AO3" s="236" t="s">
         <v>92</v>
       </c>
-      <c r="AP3" s="214" t="s">
+      <c r="AP3" s="233" t="s">
         <v>93</v>
       </c>
-      <c r="AQ3" s="215"/>
-      <c r="AR3" s="216"/>
-      <c r="AS3" s="214" t="s">
+      <c r="AQ3" s="234"/>
+      <c r="AR3" s="235"/>
+      <c r="AS3" s="233" t="s">
         <v>94</v>
       </c>
-      <c r="AT3" s="215"/>
-      <c r="AU3" s="216"/>
+      <c r="AT3" s="234"/>
+      <c r="AU3" s="235"/>
     </row>
     <row r="4" spans="1:47" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A4" s="222"/>
-      <c r="B4" s="223"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="231"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="224"/>
+      <c r="A4" s="216"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="220"/>
       <c r="L4" s="65" t="s">
         <v>95</v>
       </c>
@@ -8412,7 +8412,7 @@
       <c r="Q4" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="R4" s="233"/>
+      <c r="R4" s="229"/>
       <c r="S4" s="92" t="s">
         <v>99</v>
       </c>
@@ -8462,10 +8462,10 @@
       <c r="AK4" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="AL4" s="213"/>
-      <c r="AM4" s="213"/>
-      <c r="AN4" s="213"/>
-      <c r="AO4" s="213"/>
+      <c r="AL4" s="236"/>
+      <c r="AM4" s="236"/>
+      <c r="AN4" s="236"/>
+      <c r="AO4" s="236"/>
       <c r="AP4" s="66" t="s">
         <v>137</v>
       </c>
@@ -8508,10 +8508,10 @@
       <c r="H5" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="217" t="s">
+      <c r="I5" s="210" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="218"/>
+      <c r="J5" s="211"/>
       <c r="K5" s="70" t="s">
         <v>118</v>
       </c>
@@ -11149,6 +11149,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="B1:AO2"/>
@@ -11165,18 +11177,6 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11189,8 +11189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70:K71"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11214,30 +11214,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="252" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="254"/>
+      <c r="O1" s="254"/>
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
       <c r="D2" s="196" t="s">
         <v>2</v>
       </c>
@@ -11250,10 +11250,10 @@
         <v>70</v>
       </c>
       <c r="I2" s="198"/>
-      <c r="J2" s="241" t="s">
+      <c r="J2" s="256" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="241"/>
+      <c r="K2" s="256"/>
       <c r="L2" s="200"/>
       <c r="M2" s="201"/>
       <c r="N2" s="201" t="s">
@@ -12101,16 +12101,16 @@
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="244" t="s">
+      <c r="A44" s="257" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="244"/>
-      <c r="C44" s="244"/>
-      <c r="D44" s="244"/>
-      <c r="E44" s="244"/>
-      <c r="F44" s="244"/>
-      <c r="G44" s="244"/>
-      <c r="H44" s="244"/>
+      <c r="B44" s="257"/>
+      <c r="C44" s="257"/>
+      <c r="D44" s="257"/>
+      <c r="E44" s="257"/>
+      <c r="F44" s="257"/>
+      <c r="G44" s="257"/>
+      <c r="H44" s="257"/>
       <c r="I44" s="19"/>
       <c r="J44" s="28"/>
       <c r="K44" s="19"/>
@@ -12120,16 +12120,16 @@
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="244" t="s">
+      <c r="A45" s="257" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="244"/>
-      <c r="C45" s="244"/>
-      <c r="D45" s="244"/>
-      <c r="E45" s="244"/>
-      <c r="F45" s="244"/>
-      <c r="G45" s="244"/>
-      <c r="H45" s="244"/>
+      <c r="B45" s="257"/>
+      <c r="C45" s="257"/>
+      <c r="D45" s="257"/>
+      <c r="E45" s="257"/>
+      <c r="F45" s="257"/>
+      <c r="G45" s="257"/>
+      <c r="H45" s="257"/>
       <c r="I45" s="19"/>
       <c r="J45" s="28"/>
       <c r="K45" s="19"/>
@@ -12139,16 +12139,16 @@
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="244" t="s">
+      <c r="A46" s="257" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="244"/>
-      <c r="C46" s="244"/>
-      <c r="D46" s="244"/>
-      <c r="E46" s="244"/>
-      <c r="F46" s="244"/>
-      <c r="G46" s="244"/>
-      <c r="H46" s="244"/>
+      <c r="B46" s="257"/>
+      <c r="C46" s="257"/>
+      <c r="D46" s="257"/>
+      <c r="E46" s="257"/>
+      <c r="F46" s="257"/>
+      <c r="G46" s="257"/>
+      <c r="H46" s="257"/>
       <c r="I46" s="19"/>
       <c r="J46" s="28"/>
       <c r="K46" s="19"/>
@@ -12160,14 +12160,14 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="157"/>
-      <c r="C47" s="245" t="s">
+      <c r="C47" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="246"/>
-      <c r="E47" s="246"/>
-      <c r="F47" s="246"/>
-      <c r="G47" s="246"/>
-      <c r="H47" s="247"/>
+      <c r="D47" s="242"/>
+      <c r="E47" s="242"/>
+      <c r="F47" s="242"/>
+      <c r="G47" s="242"/>
+      <c r="H47" s="238"/>
       <c r="I47" s="32"/>
       <c r="J47" s="33"/>
       <c r="K47" s="32"/>
@@ -12181,10 +12181,10 @@
       <c r="B48" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="248" t="s">
+      <c r="C48" s="245" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="249"/>
+      <c r="D48" s="246"/>
       <c r="E48" s="36" t="s">
         <v>40</v>
       </c>
@@ -12216,8 +12216,8 @@
         <v>1</v>
       </c>
       <c r="B49" s="182"/>
-      <c r="C49" s="250"/>
-      <c r="D49" s="251"/>
+      <c r="C49" s="258"/>
+      <c r="D49" s="259"/>
       <c r="E49" s="172"/>
       <c r="F49" s="173"/>
       <c r="G49" s="183"/>
@@ -12235,8 +12235,8 @@
         <v>2</v>
       </c>
       <c r="B50" s="182"/>
-      <c r="C50" s="250"/>
-      <c r="D50" s="251"/>
+      <c r="C50" s="258"/>
+      <c r="D50" s="259"/>
       <c r="E50" s="172"/>
       <c r="F50" s="173"/>
       <c r="G50" s="183"/>
@@ -12254,8 +12254,8 @@
         <v>3</v>
       </c>
       <c r="B51" s="182"/>
-      <c r="C51" s="250"/>
-      <c r="D51" s="251"/>
+      <c r="C51" s="258"/>
+      <c r="D51" s="259"/>
       <c r="E51" s="172"/>
       <c r="F51" s="173"/>
       <c r="G51" s="183"/>
@@ -12273,8 +12273,8 @@
         <v>4</v>
       </c>
       <c r="B52" s="182"/>
-      <c r="C52" s="250"/>
-      <c r="D52" s="251"/>
+      <c r="C52" s="258"/>
+      <c r="D52" s="259"/>
       <c r="E52" s="172"/>
       <c r="F52" s="173"/>
       <c r="G52" s="183"/>
@@ -12292,8 +12292,8 @@
         <v>5</v>
       </c>
       <c r="B53" s="182"/>
-      <c r="C53" s="250"/>
-      <c r="D53" s="251"/>
+      <c r="C53" s="258"/>
+      <c r="D53" s="259"/>
       <c r="E53" s="172"/>
       <c r="F53" s="172"/>
       <c r="G53" s="172"/>
@@ -12311,8 +12311,8 @@
         <v>6</v>
       </c>
       <c r="B54" s="182"/>
-      <c r="C54" s="250"/>
-      <c r="D54" s="251"/>
+      <c r="C54" s="258"/>
+      <c r="D54" s="259"/>
       <c r="E54" s="172"/>
       <c r="F54" s="173"/>
       <c r="G54" s="184"/>
@@ -12328,14 +12328,14 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="157"/>
-      <c r="C55" s="242" t="s">
+      <c r="C55" s="239" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="242"/>
-      <c r="E55" s="242"/>
-      <c r="F55" s="243"/>
-      <c r="G55" s="243"/>
-      <c r="H55" s="242"/>
+      <c r="D55" s="239"/>
+      <c r="E55" s="239"/>
+      <c r="F55" s="251"/>
+      <c r="G55" s="251"/>
+      <c r="H55" s="239"/>
       <c r="I55" s="32"/>
       <c r="J55" s="161"/>
       <c r="K55" s="32"/>
@@ -12351,10 +12351,10 @@
       <c r="B56" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="248" t="s">
+      <c r="C56" s="245" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="249"/>
+      <c r="D56" s="246"/>
       <c r="E56" s="36" t="s">
         <v>47</v>
       </c>
@@ -12388,8 +12388,8 @@
         <v>1</v>
       </c>
       <c r="B57" s="160"/>
-      <c r="C57" s="254"/>
-      <c r="D57" s="255"/>
+      <c r="C57" s="249"/>
+      <c r="D57" s="250"/>
       <c r="E57" s="194"/>
       <c r="F57" s="194"/>
       <c r="G57" s="19"/>
@@ -12407,8 +12407,8 @@
         <v>2</v>
       </c>
       <c r="B58" s="205"/>
-      <c r="C58" s="254"/>
-      <c r="D58" s="255"/>
+      <c r="C58" s="249"/>
+      <c r="D58" s="250"/>
       <c r="E58" s="206"/>
       <c r="F58" s="206"/>
       <c r="G58" s="168"/>
@@ -12424,14 +12424,14 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="157"/>
-      <c r="C59" s="242" t="s">
+      <c r="C59" s="239" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="242"/>
-      <c r="E59" s="242"/>
-      <c r="F59" s="243"/>
-      <c r="G59" s="243"/>
-      <c r="H59" s="242"/>
+      <c r="D59" s="239"/>
+      <c r="E59" s="239"/>
+      <c r="F59" s="251"/>
+      <c r="G59" s="251"/>
+      <c r="H59" s="239"/>
       <c r="I59" s="32"/>
       <c r="J59" s="161"/>
       <c r="K59" s="32"/>
@@ -12447,10 +12447,10 @@
       <c r="B60" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="248" t="s">
+      <c r="C60" s="245" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="249"/>
+      <c r="D60" s="246"/>
       <c r="E60" s="36" t="s">
         <v>47</v>
       </c>
@@ -12484,10 +12484,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="160"/>
-      <c r="C61" s="252" t="s">
+      <c r="C61" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="253"/>
+      <c r="D61" s="244"/>
       <c r="E61" s="46"/>
       <c r="F61" s="45"/>
       <c r="G61" s="19" t="s">
@@ -12507,10 +12507,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="160"/>
-      <c r="C62" s="252" t="s">
+      <c r="C62" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="253"/>
+      <c r="D62" s="244"/>
       <c r="E62" s="46" t="s">
         <v>54</v>
       </c>
@@ -12532,10 +12532,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="160"/>
-      <c r="C63" s="252" t="s">
+      <c r="C63" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="253"/>
+      <c r="D63" s="244"/>
       <c r="E63" s="46" t="s">
         <v>56</v>
       </c>
@@ -12557,10 +12557,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="160"/>
-      <c r="C64" s="252" t="s">
+      <c r="C64" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="253"/>
+      <c r="D64" s="244"/>
       <c r="E64" s="46" t="s">
         <v>57</v>
       </c>
@@ -12582,10 +12582,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="160"/>
-      <c r="C65" s="252" t="s">
+      <c r="C65" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="253"/>
+      <c r="D65" s="244"/>
       <c r="E65" s="46"/>
       <c r="F65" s="45"/>
       <c r="G65" s="19" t="s">
@@ -12605,10 +12605,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="160"/>
-      <c r="C66" s="252" t="s">
+      <c r="C66" s="243" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="253"/>
+      <c r="D66" s="244"/>
       <c r="E66" s="46"/>
       <c r="F66" s="45"/>
       <c r="G66" s="19" t="s">
@@ -12628,14 +12628,14 @@
         <v>7</v>
       </c>
       <c r="B67" s="160"/>
-      <c r="C67" s="252" t="s">
+      <c r="C67" s="243" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="253"/>
+      <c r="D67" s="244"/>
       <c r="E67" s="46"/>
       <c r="F67" s="45"/>
       <c r="G67" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H67" s="47"/>
       <c r="I67" s="48"/>
@@ -12651,13 +12651,15 @@
         <v>8</v>
       </c>
       <c r="B68" s="160"/>
-      <c r="C68" s="252" t="s">
+      <c r="C68" s="243" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="253"/>
+      <c r="D68" s="244"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
-      <c r="G68" s="19"/>
+      <c r="G68" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="H68" s="41"/>
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
@@ -12672,8 +12674,8 @@
         <v>9</v>
       </c>
       <c r="B69" s="160"/>
-      <c r="C69" s="252"/>
-      <c r="D69" s="253"/>
+      <c r="C69" s="243"/>
+      <c r="D69" s="244"/>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
       <c r="G69" s="194"/>
@@ -12689,14 +12691,14 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="157"/>
-      <c r="C70" s="245" t="s">
+      <c r="C70" s="237" t="s">
         <v>60</v>
       </c>
-      <c r="D70" s="246"/>
-      <c r="E70" s="246"/>
-      <c r="F70" s="246"/>
-      <c r="G70" s="246"/>
-      <c r="H70" s="246"/>
+      <c r="D70" s="242"/>
+      <c r="E70" s="242"/>
+      <c r="F70" s="242"/>
+      <c r="G70" s="242"/>
+      <c r="H70" s="242"/>
       <c r="I70" s="31"/>
       <c r="J70" s="31"/>
       <c r="K70" s="32"/>
@@ -12710,16 +12712,16 @@
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="157"/>
-      <c r="C71" s="245" t="s">
+      <c r="C71" s="237" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="246"/>
-      <c r="E71" s="246"/>
-      <c r="F71" s="246"/>
-      <c r="G71" s="246"/>
-      <c r="H71" s="246"/>
-      <c r="I71" s="246"/>
-      <c r="J71" s="247"/>
+      <c r="D71" s="242"/>
+      <c r="E71" s="242"/>
+      <c r="F71" s="242"/>
+      <c r="G71" s="242"/>
+      <c r="H71" s="242"/>
+      <c r="I71" s="242"/>
+      <c r="J71" s="238"/>
       <c r="K71" s="32"/>
       <c r="L71" s="33" t="s">
         <v>45</v>
@@ -12733,10 +12735,10 @@
       <c r="B72" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="248" t="s">
+      <c r="C72" s="245" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="249"/>
+      <c r="D72" s="246"/>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
       <c r="G72" s="36" t="s">
@@ -12766,10 +12768,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="160"/>
-      <c r="C73" s="258" t="s">
+      <c r="C73" s="247" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="259"/>
+      <c r="D73" s="248"/>
       <c r="E73" s="18"/>
       <c r="F73" s="19"/>
       <c r="G73" s="18" t="s">
@@ -12789,10 +12791,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="160"/>
-      <c r="C74" s="258" t="s">
+      <c r="C74" s="247" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="259"/>
+      <c r="D74" s="248"/>
       <c r="E74" s="18"/>
       <c r="F74" s="19"/>
       <c r="G74" s="18" t="s">
@@ -12810,17 +12812,17 @@
     <row r="75" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="157"/>
-      <c r="C75" s="245" t="s">
+      <c r="C75" s="237" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="247"/>
+      <c r="D75" s="238"/>
       <c r="E75" s="157"/>
-      <c r="F75" s="242" t="s">
+      <c r="F75" s="239" t="s">
         <v>68</v>
       </c>
-      <c r="G75" s="242"/>
-      <c r="H75" s="242"/>
-      <c r="I75" s="242"/>
+      <c r="G75" s="239"/>
+      <c r="H75" s="239"/>
+      <c r="I75" s="239"/>
       <c r="J75" s="54"/>
       <c r="K75" s="32"/>
       <c r="L75" s="33" t="s">
@@ -12833,17 +12835,17 @@
     <row r="76" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="157"/>
-      <c r="C76" s="256" t="s">
+      <c r="C76" s="240" t="s">
         <v>69</v>
       </c>
-      <c r="D76" s="257"/>
+      <c r="D76" s="241"/>
       <c r="E76" s="158"/>
-      <c r="F76" s="245" t="s">
+      <c r="F76" s="237" t="s">
         <v>68</v>
       </c>
-      <c r="G76" s="246"/>
-      <c r="H76" s="246"/>
-      <c r="I76" s="246"/>
+      <c r="G76" s="242"/>
+      <c r="H76" s="242"/>
+      <c r="I76" s="242"/>
       <c r="J76" s="32"/>
       <c r="K76" s="32"/>
       <c r="L76" s="55" t="s">
@@ -12855,29 +12857,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C58:D58"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="J2:K2"/>
@@ -12893,6 +12872,29 @@
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
